--- a/raw_summary_statistics.xlsx
+++ b/raw_summary_statistics.xlsx
@@ -354,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1095,143 +1095,143 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>rpltheme1</t>
+          <t>rplthemes</t>
         </is>
       </c>
       <c r="B22">
         <v>332</v>
       </c>
       <c r="C22">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>99.48999999999999</v>
+        <v>99.94</v>
       </c>
       <c r="E22">
-        <v>41.19</v>
+        <v>51.7</v>
       </c>
       <c r="F22">
-        <v>37.69</v>
+        <v>53.34</v>
       </c>
       <c r="G22">
-        <v>27.04</v>
+        <v>27.8</v>
       </c>
       <c r="H22">
-        <v>43.79</v>
+        <v>47.71</v>
       </c>
       <c r="I22">
-        <v>16.69</v>
+        <v>27.8</v>
       </c>
       <c r="J22">
-        <v>60.48</v>
+        <v>75.515</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>rpltheme2</t>
+          <t>vaccination.50</t>
         </is>
       </c>
       <c r="B23">
         <v>332</v>
       </c>
       <c r="C23">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>99.90000000000001</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>35.06</v>
+        <v>0.54</v>
       </c>
       <c r="F23">
-        <v>28.84</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>27.38</v>
+        <v>0.5</v>
       </c>
       <c r="H23">
-        <v>46.09</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>10.19</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>56.2775</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>rpltheme3</t>
+          <t>etiquette.50</t>
         </is>
       </c>
       <c r="B24">
         <v>332</v>
       </c>
       <c r="C24">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>99.94</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>73.63</v>
+        <v>0.53</v>
       </c>
       <c r="F24">
-        <v>80.26000000000001</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>23.6</v>
+        <v>0.5</v>
       </c>
       <c r="H24">
-        <v>30.14</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>62.6575</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>92.80000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>rpltheme4</t>
+          <t>masks.50</t>
         </is>
       </c>
       <c r="B25">
         <v>332</v>
       </c>
       <c r="C25">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>61.54</v>
+        <v>0.58</v>
       </c>
       <c r="F25">
-        <v>65.36</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>25.84</v>
+        <v>0.49</v>
       </c>
       <c r="H25">
-        <v>42.46</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>42.66500000000001</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>85.13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>rplthemes</t>
+          <t>physicaldistancing.50</t>
         </is>
       </c>
       <c r="B26">
@@ -1241,56 +1241,56 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>99.94</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>51.7</v>
+        <v>0.52</v>
       </c>
       <c r="F26">
-        <v>53.34</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>27.8</v>
+        <v>0.5</v>
       </c>
       <c r="H26">
-        <v>47.71</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>27.8</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>75.515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>vaccination.50</t>
+          <t>cohortingorstaggering.50</t>
         </is>
       </c>
       <c r="B27">
         <v>332</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1299,7 +1299,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>etiquette.50</t>
+          <t>testingandscreening.50</t>
         </is>
       </c>
       <c r="B28">
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1333,7 +1333,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>masks.50</t>
+          <t>stayhome.50</t>
         </is>
       </c>
       <c r="B29">
@@ -1346,13 +1346,13 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0.58</v>
+        <v>0.7</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>physicaldistancing.50</t>
+          <t>traceandquarantine.50</t>
         </is>
       </c>
       <c r="B30">
@@ -1380,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0.52</v>
+        <v>0.58</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1401,32 +1401,32 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>cohortingorstaggering.50</t>
+          <t>cleaning.50</t>
         </is>
       </c>
       <c r="B31">
         <v>332</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0.54</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1435,7 +1435,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>testingandscreening.50</t>
+          <t>ventilation.50</t>
         </is>
       </c>
       <c r="B32">
@@ -1448,13 +1448,13 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>0.55</v>
+        <v>0.67</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1469,7 +1469,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>stayhome.50</t>
+          <t>vaccination.75</t>
         </is>
       </c>
       <c r="B33">
@@ -1482,13 +1482,13 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>0.7</v>
+        <v>0.36</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1503,7 +1503,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>traceandquarantine.50</t>
+          <t>etiquette.75</t>
         </is>
       </c>
       <c r="B34">
@@ -1516,13 +1516,13 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0.58</v>
+        <v>0.3</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -1537,7 +1537,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>cleaning.50</t>
+          <t>masks.75</t>
         </is>
       </c>
       <c r="B35">
@@ -1550,13 +1550,13 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>0.54</v>
+        <v>0.28</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -1571,7 +1571,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ventilation.50</t>
+          <t>physicaldistancing.75</t>
         </is>
       </c>
       <c r="B36">
@@ -1584,13 +1584,13 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0.67</v>
+        <v>0.52</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -1605,7 +1605,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>vaccination.75</t>
+          <t>cohortingorstaggering.75</t>
         </is>
       </c>
       <c r="B37">
@@ -1618,13 +1618,13 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>0.36</v>
+        <v>0.28</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -1639,7 +1639,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>etiquette.75</t>
+          <t>testingandscreening.75</t>
         </is>
       </c>
       <c r="B38">
@@ -1673,7 +1673,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>masks.75</t>
+          <t>stayhome.75</t>
         </is>
       </c>
       <c r="B39">
@@ -1686,13 +1686,13 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>0.28</v>
+        <v>0.7</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -1707,7 +1707,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>physicaldistancing.75</t>
+          <t>traceandquarantine.75</t>
         </is>
       </c>
       <c r="B40">
@@ -1720,13 +1720,13 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>0.52</v>
+        <v>0.35</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -1741,7 +1741,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>cohortingorstaggering.75</t>
+          <t>cleaning.75</t>
         </is>
       </c>
       <c r="B41">
@@ -1754,13 +1754,13 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>testingandscreening.75</t>
+          <t>ventilation.75</t>
         </is>
       </c>
       <c r="B42">
@@ -1788,13 +1788,13 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -1809,7 +1809,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>stayhome.75</t>
+          <t>vaccinationquarter.75</t>
         </is>
       </c>
       <c r="B43">
@@ -1822,13 +1822,13 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>0.7</v>
+        <v>0.27</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -1843,7 +1843,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>traceandquarantine.75</t>
+          <t>etiquettequarter.75</t>
         </is>
       </c>
       <c r="B44">
@@ -1856,28 +1856,28 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>0.35</v>
+        <v>0.24</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>cleaning.75</t>
+          <t>masksquarter.75</t>
         </is>
       </c>
       <c r="B45">
@@ -1890,13 +1890,13 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -1911,7 +1911,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ventilation.75</t>
+          <t>physicaldistancingquarter.75</t>
         </is>
       </c>
       <c r="B46">
@@ -1924,13 +1924,13 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -1945,32 +1945,32 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>vaccinationquarter.75</t>
+          <t>cohortingorstaggeringquarter.75</t>
         </is>
       </c>
       <c r="B47">
         <v>332</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -1979,7 +1979,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>etiquettequarter.75</t>
+          <t>testingandscreeningquarter.75</t>
         </is>
       </c>
       <c r="B48">
@@ -1992,28 +1992,28 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>masksquarter.75</t>
+          <t>stayhomequarter.75</t>
         </is>
       </c>
       <c r="B49">
@@ -2026,13 +2026,13 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>physicaldistancingquarter.75</t>
+          <t>traceandquarantinequarter.75</t>
         </is>
       </c>
       <c r="B50">
@@ -2060,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2081,32 +2081,32 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>cohortingorstaggeringquarter.75</t>
+          <t>cleaningquarter.75</t>
         </is>
       </c>
       <c r="B51">
         <v>332</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0.28</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2115,7 +2115,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>testingandscreeningquarter.75</t>
+          <t>ventilationquarter.75</t>
         </is>
       </c>
       <c r="B52">
@@ -2128,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2149,7 +2149,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>stayhomequarter.75</t>
+          <t>vaccinationquarter</t>
         </is>
       </c>
       <c r="B53">
@@ -2159,31 +2159,31 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E53">
-        <v>0.35</v>
+        <v>2.23</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0.48</v>
+        <v>3.75</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>traceandquarantinequarter.75</t>
+          <t>etiquettequarter</t>
         </is>
       </c>
       <c r="B54">
@@ -2193,31 +2193,31 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E54">
-        <v>0.31</v>
+        <v>2.39</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0.46</v>
+        <v>3.1</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>cleaningquarter.75</t>
+          <t>masksquarter</t>
         </is>
       </c>
       <c r="B55">
@@ -2227,31 +2227,31 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E55">
-        <v>0.28</v>
+        <v>4.23</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0.45</v>
+        <v>5.05</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ventilationquarter.75</t>
+          <t>physicaldistancingquarter</t>
         </is>
       </c>
       <c r="B56">
@@ -2261,31 +2261,31 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E56">
-        <v>0.27</v>
+        <v>1.38</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>0.44</v>
+        <v>1.69</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>vaccinationquarter</t>
+          <t>cohortingorstaggeringquarter</t>
         </is>
       </c>
       <c r="B57">
@@ -2295,31 +2295,31 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E57">
-        <v>2.23</v>
+        <v>0.59</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>3.75</v>
+        <v>1.13</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>etiquettequarter</t>
+          <t>testingandscreeningquarter</t>
         </is>
       </c>
       <c r="B58">
@@ -2332,28 +2332,28 @@
         <v>8</v>
       </c>
       <c r="E58">
-        <v>2.39</v>
+        <v>1.56</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>3.1</v>
+        <v>2.64</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>masksquarter</t>
+          <t>stayhomequarter</t>
         </is>
       </c>
       <c r="B59">
@@ -2363,31 +2363,31 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E59">
-        <v>4.23</v>
+        <v>2.39</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>5.05</v>
+        <v>2.93</v>
       </c>
       <c r="H59">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>physicaldistancingquarter</t>
+          <t>traceandquarantinequarter</t>
         </is>
       </c>
       <c r="B60">
@@ -2397,31 +2397,31 @@
         <v>0</v>
       </c>
       <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>2.65</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>3.45</v>
+      </c>
+      <c r="H60">
         <v>6</v>
       </c>
-      <c r="E60">
-        <v>1.38</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>1.69</v>
-      </c>
-      <c r="H60">
-        <v>3</v>
-      </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>cohortingorstaggeringquarter</t>
+          <t>cleaningquarter</t>
         </is>
       </c>
       <c r="B61">
@@ -2431,31 +2431,31 @@
         <v>0</v>
       </c>
       <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>1.38</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>2.1</v>
+      </c>
+      <c r="H61">
         <v>3</v>
       </c>
-      <c r="E61">
-        <v>0.59</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>1.13</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>testingandscreeningquarter</t>
+          <t>ventilationquarter</t>
         </is>
       </c>
       <c r="B62">
@@ -2465,31 +2465,31 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E62">
-        <v>1.56</v>
+        <v>1.9</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>2.64</v>
+        <v>3</v>
       </c>
       <c r="H62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>stayhomequarter</t>
+          <t>vaccinationquarter.nonzero</t>
         </is>
       </c>
       <c r="B63">
@@ -2499,31 +2499,31 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>2.39</v>
+        <v>0.33</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>2.93</v>
+        <v>0.47</v>
       </c>
       <c r="H63">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>traceandquarantinequarter</t>
+          <t>etiquettequarter.nonzero</t>
         </is>
       </c>
       <c r="B64">
@@ -2533,31 +2533,31 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>2.65</v>
+        <v>0.43</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>3.45</v>
+        <v>0.5</v>
       </c>
       <c r="H64">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>cleaningquarter</t>
+          <t>masksquarter.nonzero</t>
         </is>
       </c>
       <c r="B65">
@@ -2567,31 +2567,31 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>1.38</v>
+        <v>0.48</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ventilationquarter</t>
+          <t>physicaldistancingquarter.nonzero</t>
         </is>
       </c>
       <c r="B66">
@@ -2601,25 +2601,229 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>1.9</v>
+        <v>0.45</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>cohortingorstaggeringquarter.nonzero</t>
+        </is>
+      </c>
+      <c r="B67">
+        <v>332</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0.23</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0.42</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>testingandscreeningquarter.nonzero</t>
+        </is>
+      </c>
+      <c r="B68">
+        <v>332</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0.3</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0.46</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>stayhomequarter.nonzero</t>
+        </is>
+      </c>
+      <c r="B69">
+        <v>332</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0.42</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0.49</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>traceandquarantinequarter.nonzero</t>
+        </is>
+      </c>
+      <c r="B70">
+        <v>332</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0.42</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0.5</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>cleaningquarter.nonzero</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>332</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0.37</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0.48</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ventilationquarter.nonzero</t>
+        </is>
+      </c>
+      <c r="B72">
+        <v>332</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0.38</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0.49</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2629,7 +2833,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4013,6 +4217,476 @@
         </is>
       </c>
       <c r="M29" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>vaccinationquarter.nonzero</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>221</v>
+      </c>
+      <c r="C30">
+        <v>111</v>
+      </c>
+      <c r="D30">
+        <v>0.77</v>
+      </c>
+      <c r="E30">
+        <v>1.764</v>
+      </c>
+      <c r="F30">
+        <v>0.994</v>
+      </c>
+      <c r="G30">
+        <v>2.428</v>
+      </c>
+      <c r="H30">
+        <v>0.016</v>
+      </c>
+      <c r="I30">
+        <v>315.765</v>
+      </c>
+      <c r="J30">
+        <v>0.146</v>
+      </c>
+      <c r="K30">
+        <v>1.394</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Welch Two Sample t-test</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>etiquettequarter.nonzero</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>188</v>
+      </c>
+      <c r="C31">
+        <v>144</v>
+      </c>
+      <c r="D31">
+        <v>0.635</v>
+      </c>
+      <c r="E31">
+        <v>1.782</v>
+      </c>
+      <c r="F31">
+        <v>1.147</v>
+      </c>
+      <c r="G31">
+        <v>1.786</v>
+      </c>
+      <c r="H31">
+        <v>0.075</v>
+      </c>
+      <c r="I31">
+        <v>276.139</v>
+      </c>
+      <c r="J31">
+        <v>-0.065</v>
+      </c>
+      <c r="K31">
+        <v>1.335</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Welch Two Sample t-test</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>masksquarter.nonzero</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>172</v>
+      </c>
+      <c r="C32">
+        <v>160</v>
+      </c>
+      <c r="D32">
+        <v>0.482</v>
+      </c>
+      <c r="E32">
+        <v>1.739</v>
+      </c>
+      <c r="F32">
+        <v>1.257</v>
+      </c>
+      <c r="G32">
+        <v>1.279</v>
+      </c>
+      <c r="H32">
+        <v>0.202</v>
+      </c>
+      <c r="I32">
+        <v>244.275</v>
+      </c>
+      <c r="J32">
+        <v>-0.26</v>
+      </c>
+      <c r="K32">
+        <v>1.223</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Welch Two Sample t-test</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>physicaldistancingquarter.nonzero</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>182</v>
+      </c>
+      <c r="C33">
+        <v>150</v>
+      </c>
+      <c r="D33">
+        <v>0.366</v>
+      </c>
+      <c r="E33">
+        <v>1.672</v>
+      </c>
+      <c r="F33">
+        <v>1.306</v>
+      </c>
+      <c r="G33">
+        <v>1.004</v>
+      </c>
+      <c r="H33">
+        <v>0.316</v>
+      </c>
+      <c r="I33">
+        <v>271.902</v>
+      </c>
+      <c r="J33">
+        <v>-0.352</v>
+      </c>
+      <c r="K33">
+        <v>1.084</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Welch Two Sample t-test</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>cohortingorstaggeringquarter.nonzero</t>
+        </is>
+      </c>
+      <c r="B34">
+        <v>255</v>
+      </c>
+      <c r="C34">
+        <v>77</v>
+      </c>
+      <c r="D34">
+        <v>0.634</v>
+      </c>
+      <c r="E34">
+        <v>1.654</v>
+      </c>
+      <c r="F34">
+        <v>1.02</v>
+      </c>
+      <c r="G34">
+        <v>2.022</v>
+      </c>
+      <c r="H34">
+        <v>0.044</v>
+      </c>
+      <c r="I34">
+        <v>284.251</v>
+      </c>
+      <c r="J34">
+        <v>0.017</v>
+      </c>
+      <c r="K34">
+        <v>1.252</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Welch Two Sample t-test</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>testingandscreeningquarter.nonzero</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>232</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>0.29</v>
+      </c>
+      <c r="E35">
+        <v>1.594</v>
+      </c>
+      <c r="F35">
+        <v>1.304</v>
+      </c>
+      <c r="G35">
+        <v>0.795</v>
+      </c>
+      <c r="H35">
+        <v>0.427</v>
+      </c>
+      <c r="I35">
+        <v>266.05</v>
+      </c>
+      <c r="J35">
+        <v>-0.428</v>
+      </c>
+      <c r="K35">
+        <v>1.007</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Welch Two Sample t-test</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>stayhomequarter.nonzero</t>
+        </is>
+      </c>
+      <c r="B36">
+        <v>193</v>
+      </c>
+      <c r="C36">
+        <v>139</v>
+      </c>
+      <c r="D36">
+        <v>0.585</v>
+      </c>
+      <c r="E36">
+        <v>1.752</v>
+      </c>
+      <c r="F36">
+        <v>1.167</v>
+      </c>
+      <c r="G36">
+        <v>1.659</v>
+      </c>
+      <c r="H36">
+        <v>0.098</v>
+      </c>
+      <c r="I36">
+        <v>295.531</v>
+      </c>
+      <c r="J36">
+        <v>-0.109</v>
+      </c>
+      <c r="K36">
+        <v>1.279</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Welch Two Sample t-test</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>traceandquarantinequarter.nonzero</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>191</v>
+      </c>
+      <c r="C37">
+        <v>141</v>
+      </c>
+      <c r="D37">
+        <v>0.623</v>
+      </c>
+      <c r="E37">
+        <v>1.771</v>
+      </c>
+      <c r="F37">
+        <v>1.148</v>
+      </c>
+      <c r="G37">
+        <v>1.761</v>
+      </c>
+      <c r="H37">
+        <v>0.079</v>
+      </c>
+      <c r="I37">
+        <v>287.624</v>
+      </c>
+      <c r="J37">
+        <v>-0.073</v>
+      </c>
+      <c r="K37">
+        <v>1.318</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Welch Two Sample t-test</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>cleaningquarter.nonzero</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>209</v>
+      </c>
+      <c r="C38">
+        <v>123</v>
+      </c>
+      <c r="D38">
+        <v>0.438</v>
+      </c>
+      <c r="E38">
+        <v>1.669</v>
+      </c>
+      <c r="F38">
+        <v>1.231</v>
+      </c>
+      <c r="G38">
+        <v>1.32</v>
+      </c>
+      <c r="H38">
+        <v>0.188</v>
+      </c>
+      <c r="I38">
+        <v>305.155</v>
+      </c>
+      <c r="J38">
+        <v>-0.215</v>
+      </c>
+      <c r="K38">
+        <v>1.092</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Welch Two Sample t-test</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ventilationquarter.nonzero</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>207</v>
+      </c>
+      <c r="C39">
+        <v>125</v>
+      </c>
+      <c r="D39">
+        <v>0.529</v>
+      </c>
+      <c r="E39">
+        <v>1.706</v>
+      </c>
+      <c r="F39">
+        <v>1.177</v>
+      </c>
+      <c r="G39">
+        <v>1.572</v>
+      </c>
+      <c r="H39">
+        <v>0.117</v>
+      </c>
+      <c r="I39">
+        <v>309.297</v>
+      </c>
+      <c r="J39">
+        <v>-0.133</v>
+      </c>
+      <c r="K39">
+        <v>1.191</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Welch Two Sample t-test</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>two.sided</t>
         </is>
@@ -4114,7 +4788,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4835,26 +5509,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>rpltheme1</t>
+          <t>rplthemes</t>
         </is>
       </c>
       <c r="B21">
-        <v>-0.02</v>
+        <v>-0.015</v>
       </c>
       <c r="C21">
-        <v>-0.356</v>
+        <v>-0.274</v>
       </c>
       <c r="D21">
-        <v>0.722</v>
+        <v>0.784</v>
       </c>
       <c r="E21">
         <v>330</v>
       </c>
       <c r="F21">
-        <v>-0.127</v>
+        <v>-0.123</v>
       </c>
       <c r="G21">
-        <v>0.08799999999999999</v>
+        <v>0.093</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -4870,26 +5544,26 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>rpltheme2</t>
+          <t>vaccinationquarter</t>
         </is>
       </c>
       <c r="B22">
-        <v>-0.032</v>
+        <v>-0.109</v>
       </c>
       <c r="C22">
-        <v>-0.577</v>
+        <v>-1.999</v>
       </c>
       <c r="D22">
-        <v>0.5639999999999999</v>
+        <v>0.046</v>
       </c>
       <c r="E22">
         <v>330</v>
       </c>
       <c r="F22">
-        <v>-0.139</v>
+        <v>-0.215</v>
       </c>
       <c r="G22">
-        <v>0.076</v>
+        <v>-0.002</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -4905,26 +5579,26 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>rpltheme3</t>
+          <t>etiquettequarter</t>
         </is>
       </c>
       <c r="B23">
-        <v>0.077</v>
+        <v>-0.096</v>
       </c>
       <c r="C23">
-        <v>1.406</v>
+        <v>-1.745</v>
       </c>
       <c r="D23">
-        <v>0.161</v>
+        <v>0.082</v>
       </c>
       <c r="E23">
         <v>330</v>
       </c>
       <c r="F23">
-        <v>-0.031</v>
+        <v>-0.201</v>
       </c>
       <c r="G23">
-        <v>0.183</v>
+        <v>0.012</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -4940,26 +5614,26 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>rpltheme4</t>
+          <t>masksquarter</t>
         </is>
       </c>
       <c r="B24">
-        <v>-0.047</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="C24">
-        <v>-0.863</v>
+        <v>-1.534</v>
       </c>
       <c r="D24">
-        <v>0.389</v>
+        <v>0.126</v>
       </c>
       <c r="E24">
         <v>330</v>
       </c>
       <c r="F24">
-        <v>-0.154</v>
+        <v>-0.19</v>
       </c>
       <c r="G24">
-        <v>0.06</v>
+        <v>0.024</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -4975,26 +5649,26 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>rplthemes</t>
+          <t>physicaldistancingquarter</t>
         </is>
       </c>
       <c r="B25">
-        <v>-0.015</v>
+        <v>-0.068</v>
       </c>
       <c r="C25">
-        <v>-0.274</v>
+        <v>-1.23</v>
       </c>
       <c r="D25">
-        <v>0.784</v>
+        <v>0.22</v>
       </c>
       <c r="E25">
         <v>330</v>
       </c>
       <c r="F25">
-        <v>-0.123</v>
+        <v>-0.174</v>
       </c>
       <c r="G25">
-        <v>0.093</v>
+        <v>0.04</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -5010,26 +5684,26 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>vaccinationquarter</t>
+          <t>cohortingorstaggeringquarter</t>
         </is>
       </c>
       <c r="B26">
-        <v>-0.109</v>
+        <v>-0.074</v>
       </c>
       <c r="C26">
-        <v>-1.999</v>
+        <v>-1.353</v>
       </c>
       <c r="D26">
-        <v>0.046</v>
+        <v>0.177</v>
       </c>
       <c r="E26">
         <v>330</v>
       </c>
       <c r="F26">
-        <v>-0.215</v>
+        <v>-0.18</v>
       </c>
       <c r="G26">
-        <v>-0.002</v>
+        <v>0.034</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -5045,26 +5719,26 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>etiquettequarter</t>
+          <t>testingandscreeningquarter</t>
         </is>
       </c>
       <c r="B27">
-        <v>-0.096</v>
+        <v>-0.037</v>
       </c>
       <c r="C27">
-        <v>-1.745</v>
+        <v>-0.667</v>
       </c>
       <c r="D27">
-        <v>0.082</v>
+        <v>0.505</v>
       </c>
       <c r="E27">
         <v>330</v>
       </c>
       <c r="F27">
-        <v>-0.201</v>
+        <v>-0.144</v>
       </c>
       <c r="G27">
-        <v>0.012</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -5080,26 +5754,26 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>masksquarter</t>
+          <t>stayhomequarter</t>
         </is>
       </c>
       <c r="B28">
-        <v>-0.08400000000000001</v>
+        <v>-0.074</v>
       </c>
       <c r="C28">
-        <v>-1.534</v>
+        <v>-1.341</v>
       </c>
       <c r="D28">
-        <v>0.126</v>
+        <v>0.181</v>
       </c>
       <c r="E28">
         <v>330</v>
       </c>
       <c r="F28">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="G28">
-        <v>0.024</v>
+        <v>0.034</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -5115,26 +5789,26 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>physicaldistancingquarter</t>
+          <t>traceandquarantinequarter</t>
         </is>
       </c>
       <c r="B29">
-        <v>-0.068</v>
+        <v>-0.089</v>
       </c>
       <c r="C29">
-        <v>-1.23</v>
+        <v>-1.628</v>
       </c>
       <c r="D29">
-        <v>0.22</v>
+        <v>0.104</v>
       </c>
       <c r="E29">
         <v>330</v>
       </c>
       <c r="F29">
-        <v>-0.174</v>
+        <v>-0.195</v>
       </c>
       <c r="G29">
-        <v>0.04</v>
+        <v>0.019</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -5150,26 +5824,26 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>cohortingorstaggeringquarter</t>
+          <t>cleaningquarter</t>
         </is>
       </c>
       <c r="B30">
-        <v>-0.074</v>
+        <v>-0.058</v>
       </c>
       <c r="C30">
-        <v>-1.353</v>
+        <v>-1.058</v>
       </c>
       <c r="D30">
-        <v>0.177</v>
+        <v>0.291</v>
       </c>
       <c r="E30">
         <v>330</v>
       </c>
       <c r="F30">
-        <v>-0.18</v>
+        <v>-0.165</v>
       </c>
       <c r="G30">
-        <v>0.034</v>
+        <v>0.05</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -5185,26 +5859,26 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>testingandscreeningquarter</t>
+          <t>ventilationquarter</t>
         </is>
       </c>
       <c r="B31">
-        <v>-0.037</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="C31">
-        <v>-0.667</v>
+        <v>-1.306</v>
       </c>
       <c r="D31">
-        <v>0.505</v>
+        <v>0.192</v>
       </c>
       <c r="E31">
         <v>330</v>
       </c>
       <c r="F31">
-        <v>-0.144</v>
+        <v>-0.178</v>
       </c>
       <c r="G31">
-        <v>0.07099999999999999</v>
+        <v>0.036</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -5220,26 +5894,26 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>stayhomequarter</t>
+          <t>vaccinationquarter.nonzero</t>
         </is>
       </c>
       <c r="B32">
-        <v>-0.074</v>
+        <v>-0.104</v>
       </c>
       <c r="C32">
-        <v>-1.341</v>
+        <v>-1.893</v>
       </c>
       <c r="D32">
-        <v>0.181</v>
+        <v>0.059</v>
       </c>
       <c r="E32">
         <v>330</v>
       </c>
       <c r="F32">
-        <v>-0.18</v>
+        <v>-0.209</v>
       </c>
       <c r="G32">
-        <v>0.034</v>
+        <v>0.004</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -5255,17 +5929,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>traceandquarantinequarter</t>
+          <t>etiquettequarter.nonzero</t>
         </is>
       </c>
       <c r="B33">
-        <v>-0.089</v>
+        <v>-0.09</v>
       </c>
       <c r="C33">
-        <v>-1.628</v>
+        <v>-1.637</v>
       </c>
       <c r="D33">
-        <v>0.104</v>
+        <v>0.103</v>
       </c>
       <c r="E33">
         <v>330</v>
@@ -5274,7 +5948,7 @@
         <v>-0.195</v>
       </c>
       <c r="G33">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -5290,26 +5964,26 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>cleaningquarter</t>
+          <t>masksquarter.nonzero</t>
         </is>
       </c>
       <c r="B34">
-        <v>-0.058</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="C34">
-        <v>-1.058</v>
+        <v>-1.25</v>
       </c>
       <c r="D34">
-        <v>0.291</v>
+        <v>0.212</v>
       </c>
       <c r="E34">
         <v>330</v>
       </c>
       <c r="F34">
-        <v>-0.165</v>
+        <v>-0.175</v>
       </c>
       <c r="G34">
-        <v>0.05</v>
+        <v>0.039</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -5325,26 +5999,26 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ventilationquarter</t>
+          <t>physicaldistancingquarter.nonzero</t>
         </is>
       </c>
       <c r="B35">
-        <v>-0.07199999999999999</v>
+        <v>-0.052</v>
       </c>
       <c r="C35">
-        <v>-1.306</v>
+        <v>-0.946</v>
       </c>
       <c r="D35">
-        <v>0.192</v>
+        <v>0.345</v>
       </c>
       <c r="E35">
         <v>330</v>
       </c>
       <c r="F35">
-        <v>-0.178</v>
+        <v>-0.159</v>
       </c>
       <c r="G35">
-        <v>0.036</v>
+        <v>0.056</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -5352,6 +6026,216 @@
         </is>
       </c>
       <c r="I35" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>cohortingorstaggeringquarter.nonzero</t>
+        </is>
+      </c>
+      <c r="B36">
+        <v>-0.076</v>
+      </c>
+      <c r="C36">
+        <v>-1.391</v>
+      </c>
+      <c r="D36">
+        <v>0.165</v>
+      </c>
+      <c r="E36">
+        <v>330</v>
+      </c>
+      <c r="F36">
+        <v>-0.182</v>
+      </c>
+      <c r="G36">
+        <v>0.032</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Pearson's product-moment correlation</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>testingandscreeningquarter.nonzero</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>-0.038</v>
+      </c>
+      <c r="C37">
+        <v>-0.6889999999999999</v>
+      </c>
+      <c r="D37">
+        <v>0.491</v>
+      </c>
+      <c r="E37">
+        <v>330</v>
+      </c>
+      <c r="F37">
+        <v>-0.145</v>
+      </c>
+      <c r="G37">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Pearson's product-moment correlation</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>stayhomequarter.nonzero</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>-0.082</v>
+      </c>
+      <c r="C38">
+        <v>-1.501</v>
+      </c>
+      <c r="D38">
+        <v>0.134</v>
+      </c>
+      <c r="E38">
+        <v>330</v>
+      </c>
+      <c r="F38">
+        <v>-0.188</v>
+      </c>
+      <c r="G38">
+        <v>0.026</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Pearson's product-moment correlation</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>traceandquarantinequarter.nonzero</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>-0.08799999999999999</v>
+      </c>
+      <c r="C39">
+        <v>-1.601</v>
+      </c>
+      <c r="D39">
+        <v>0.11</v>
+      </c>
+      <c r="E39">
+        <v>330</v>
+      </c>
+      <c r="F39">
+        <v>-0.194</v>
+      </c>
+      <c r="G39">
+        <v>0.02</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Pearson's product-moment correlation</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>cleaningquarter.nonzero</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>-0.06</v>
+      </c>
+      <c r="C40">
+        <v>-1.099</v>
+      </c>
+      <c r="D40">
+        <v>0.273</v>
+      </c>
+      <c r="E40">
+        <v>330</v>
+      </c>
+      <c r="F40">
+        <v>-0.167</v>
+      </c>
+      <c r="G40">
+        <v>0.048</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Pearson's product-moment correlation</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ventilationquarter.nonzero</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>-0.073</v>
+      </c>
+      <c r="C41">
+        <v>-1.332</v>
+      </c>
+      <c r="D41">
+        <v>0.184</v>
+      </c>
+      <c r="E41">
+        <v>330</v>
+      </c>
+      <c r="F41">
+        <v>-0.179</v>
+      </c>
+      <c r="G41">
+        <v>0.035</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Pearson's product-moment correlation</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>two.sided</t>
         </is>

--- a/raw_summary_statistics.xlsx
+++ b/raw_summary_statistics.xlsx
@@ -354,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -789,41 +789,41 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>percentamericanindianoralaskanative</t>
+          <t>cntycaseschange</t>
         </is>
       </c>
       <c r="B13">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>-13.67</v>
       </c>
       <c r="D13">
-        <v>98.7</v>
+        <v>14747.43</v>
       </c>
       <c r="E13">
-        <v>1.52</v>
+        <v>850.14</v>
       </c>
       <c r="F13">
-        <v>0.2</v>
+        <v>189.05</v>
       </c>
       <c r="G13">
-        <v>8.98</v>
+        <v>2407.81</v>
       </c>
       <c r="H13">
-        <v>0.6</v>
+        <v>498.24</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>31.09533333333334</v>
       </c>
       <c r="J13">
-        <v>0.6</v>
+        <v>529.3333333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>percentasian</t>
+          <t>percentamericanindianoralaskanative</t>
         </is>
       </c>
       <c r="B14">
@@ -833,31 +833,31 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>56</v>
+        <v>98.7</v>
       </c>
       <c r="E14">
-        <v>4.1</v>
+        <v>1.52</v>
       </c>
       <c r="F14">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="G14">
-        <v>7.8</v>
+        <v>8.98</v>
       </c>
       <c r="H14">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="I14">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>percentblackorafricanamerican</t>
+          <t>percentasian</t>
         </is>
       </c>
       <c r="B15">
@@ -867,31 +867,31 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>99.5</v>
+        <v>56</v>
       </c>
       <c r="E15">
-        <v>13.46</v>
+        <v>4.1</v>
       </c>
       <c r="F15">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="G15">
-        <v>21.79</v>
+        <v>7.8</v>
       </c>
       <c r="H15">
-        <v>14.9</v>
+        <v>3.5</v>
       </c>
       <c r="I15">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J15">
-        <v>15.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>percenthispaniclatino</t>
+          <t>percentblackorafricanamerican</t>
         </is>
       </c>
       <c r="B16">
@@ -901,31 +901,31 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="E16">
-        <v>25.09</v>
+        <v>13.46</v>
       </c>
       <c r="F16">
-        <v>14.4</v>
+        <v>3.7</v>
       </c>
       <c r="G16">
-        <v>26.42</v>
+        <v>21.79</v>
       </c>
       <c r="H16">
-        <v>29.7</v>
+        <v>14.9</v>
       </c>
       <c r="I16">
-        <v>5.899999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="J16">
-        <v>35.6</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>percentnativehawaiianorotherpacificislander</t>
+          <t>percenthispaniclatino</t>
         </is>
       </c>
       <c r="B17">
@@ -935,31 +935,31 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.699999999999999</v>
+        <v>100</v>
       </c>
       <c r="E17">
-        <v>0.24</v>
+        <v>25.09</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="G17">
-        <v>0.71</v>
+        <v>26.42</v>
       </c>
       <c r="H17">
-        <v>0.2</v>
+        <v>29.7</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="J17">
-        <v>0.2</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>percentnotspecified</t>
+          <t>percentnativehawaiianorotherpacificislander</t>
         </is>
       </c>
       <c r="B18">
@@ -969,31 +969,31 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E18">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.17</v>
+        <v>0.71</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>percenttwoormoreraces</t>
+          <t>percentnotspecified</t>
         </is>
       </c>
       <c r="B19">
@@ -1003,31 +1003,31 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>23.8</v>
+        <v>2.6</v>
       </c>
       <c r="E19">
-        <v>3.87</v>
+        <v>0.02</v>
       </c>
       <c r="F19">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>3.09</v>
+        <v>0.17</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>percentwhite</t>
+          <t>percenttwoormoreraces</t>
         </is>
       </c>
       <c r="B20">
@@ -1037,99 +1037,99 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>97.7</v>
+        <v>23.8</v>
       </c>
       <c r="E20">
-        <v>51.7</v>
+        <v>3.87</v>
       </c>
       <c r="F20">
-        <v>56.9</v>
+        <v>3.4</v>
       </c>
       <c r="G20">
-        <v>31.54</v>
+        <v>3.09</v>
       </c>
       <c r="H20">
-        <v>54.2</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>25.8</v>
+        <v>1.5</v>
       </c>
       <c r="J20">
-        <v>80</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>percentstudentsfreereducedlunch</t>
+          <t>percentwhite</t>
         </is>
       </c>
       <c r="B21">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C21">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="E21">
-        <v>51.13</v>
+        <v>51.7</v>
       </c>
       <c r="F21">
-        <v>49.65</v>
+        <v>56.9</v>
       </c>
       <c r="G21">
-        <v>28.4</v>
+        <v>31.54</v>
       </c>
       <c r="H21">
-        <v>46.67</v>
+        <v>54.2</v>
       </c>
       <c r="I21">
-        <v>28.075</v>
+        <v>25.8</v>
       </c>
       <c r="J21">
-        <v>74.75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>rplthemes</t>
+          <t>percentstudentsfreereducedlunch</t>
         </is>
       </c>
       <c r="B22">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D22">
-        <v>99.94</v>
+        <v>100</v>
       </c>
       <c r="E22">
-        <v>51.7</v>
+        <v>51.13</v>
       </c>
       <c r="F22">
-        <v>53.34</v>
+        <v>49.65</v>
       </c>
       <c r="G22">
-        <v>27.8</v>
+        <v>28.4</v>
       </c>
       <c r="H22">
-        <v>47.71</v>
+        <v>46.67</v>
       </c>
       <c r="I22">
-        <v>27.8</v>
+        <v>28.075</v>
       </c>
       <c r="J22">
-        <v>75.515</v>
+        <v>74.75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vaccination.50</t>
+          <t>rplthemes</t>
         </is>
       </c>
       <c r="B23">
@@ -1139,31 +1139,31 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>99.94</v>
       </c>
       <c r="E23">
-        <v>0.54</v>
+        <v>51.7</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>53.34</v>
       </c>
       <c r="G23">
-        <v>0.5</v>
+        <v>27.8</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>47.71</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>27.8</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>75.515</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>etiquette.50</t>
+          <t>vaccination.50</t>
         </is>
       </c>
       <c r="B24">
@@ -1176,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1197,7 +1197,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>masks.50</t>
+          <t>etiquette.50</t>
         </is>
       </c>
       <c r="B25">
@@ -1210,13 +1210,13 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1231,7 +1231,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>physicaldistancing.50</t>
+          <t>masks.50</t>
         </is>
       </c>
       <c r="B26">
@@ -1244,13 +1244,13 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>0.52</v>
+        <v>0.58</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1265,32 +1265,32 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>cohortingorstaggering.50</t>
+          <t>physicaldistancing.50</t>
         </is>
       </c>
       <c r="B27">
         <v>332</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1299,32 +1299,32 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>testingandscreening.50</t>
+          <t>cohortingorstaggering.50</t>
         </is>
       </c>
       <c r="B28">
         <v>332</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1333,7 +1333,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>stayhome.50</t>
+          <t>testingandscreening.50</t>
         </is>
       </c>
       <c r="B29">
@@ -1346,13 +1346,13 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>traceandquarantine.50</t>
+          <t>stayhome.50</t>
         </is>
       </c>
       <c r="B30">
@@ -1380,13 +1380,13 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0.58</v>
+        <v>0.7</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1401,7 +1401,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>cleaning.50</t>
+          <t>traceandquarantine.50</t>
         </is>
       </c>
       <c r="B31">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>0.54</v>
+        <v>0.58</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1435,7 +1435,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ventilation.50</t>
+          <t>cleaning.50</t>
         </is>
       </c>
       <c r="B32">
@@ -1448,13 +1448,13 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>0.67</v>
+        <v>0.54</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1469,7 +1469,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>vaccination.75</t>
+          <t>ventilation.50</t>
         </is>
       </c>
       <c r="B33">
@@ -1482,13 +1482,13 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>0.36</v>
+        <v>0.67</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1503,7 +1503,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>etiquette.75</t>
+          <t>vaccination.75</t>
         </is>
       </c>
       <c r="B34">
@@ -1516,13 +1516,13 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -1537,7 +1537,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>masks.75</t>
+          <t>etiquette.75</t>
         </is>
       </c>
       <c r="B35">
@@ -1550,13 +1550,13 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -1571,7 +1571,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>physicaldistancing.75</t>
+          <t>masks.75</t>
         </is>
       </c>
       <c r="B36">
@@ -1584,13 +1584,13 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0.52</v>
+        <v>0.28</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -1605,7 +1605,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>cohortingorstaggering.75</t>
+          <t>physicaldistancing.75</t>
         </is>
       </c>
       <c r="B37">
@@ -1618,13 +1618,13 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>0.28</v>
+        <v>0.52</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -1639,7 +1639,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>testingandscreening.75</t>
+          <t>cohortingorstaggering.75</t>
         </is>
       </c>
       <c r="B38">
@@ -1652,13 +1652,13 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -1673,7 +1673,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>stayhome.75</t>
+          <t>testingandscreening.75</t>
         </is>
       </c>
       <c r="B39">
@@ -1686,10 +1686,10 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0.46</v>
@@ -1707,7 +1707,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>traceandquarantine.75</t>
+          <t>stayhome.75</t>
         </is>
       </c>
       <c r="B40">
@@ -1720,13 +1720,13 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -1741,7 +1741,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>cleaning.75</t>
+          <t>traceandquarantine.75</t>
         </is>
       </c>
       <c r="B41">
@@ -1754,13 +1754,13 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ventilation.75</t>
+          <t>cleaning.75</t>
         </is>
       </c>
       <c r="B42">
@@ -1788,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>vaccinationquarter.75</t>
+          <t>ventilation.75</t>
         </is>
       </c>
       <c r="B43">
@@ -1822,13 +1822,13 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -1843,7 +1843,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>etiquettequarter.75</t>
+          <t>vaccinationquarter.75</t>
         </is>
       </c>
       <c r="B44">
@@ -1856,28 +1856,28 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>masksquarter.75</t>
+          <t>etiquettequarter.75</t>
         </is>
       </c>
       <c r="B45">
@@ -1890,28 +1890,28 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>physicaldistancingquarter.75</t>
+          <t>masksquarter.75</t>
         </is>
       </c>
       <c r="B46">
@@ -1924,13 +1924,13 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -1945,32 +1945,32 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>cohortingorstaggeringquarter.75</t>
+          <t>physicaldistancingquarter.75</t>
         </is>
       </c>
       <c r="B47">
         <v>332</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -1979,32 +1979,32 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>testingandscreeningquarter.75</t>
+          <t>cohortingorstaggeringquarter.75</t>
         </is>
       </c>
       <c r="B48">
         <v>332</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2013,7 +2013,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>stayhomequarter.75</t>
+          <t>testingandscreeningquarter.75</t>
         </is>
       </c>
       <c r="B49">
@@ -2026,13 +2026,13 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>traceandquarantinequarter.75</t>
+          <t>stayhomequarter.75</t>
         </is>
       </c>
       <c r="B50">
@@ -2060,13 +2060,13 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -2081,7 +2081,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>cleaningquarter.75</t>
+          <t>traceandquarantinequarter.75</t>
         </is>
       </c>
       <c r="B51">
@@ -2094,13 +2094,13 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -2115,7 +2115,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ventilationquarter.75</t>
+          <t>cleaningquarter.75</t>
         </is>
       </c>
       <c r="B52">
@@ -2128,13 +2128,13 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -2149,7 +2149,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>vaccinationquarter</t>
+          <t>ventilationquarter.75</t>
         </is>
       </c>
       <c r="B53">
@@ -2159,31 +2159,31 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>2.23</v>
+        <v>0.27</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>3.75</v>
+        <v>0.44</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>etiquettequarter</t>
+          <t>vaccinationquarter</t>
         </is>
       </c>
       <c r="B54">
@@ -2193,31 +2193,31 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E54">
-        <v>2.39</v>
+        <v>2.23</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="H54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>masksquarter</t>
+          <t>etiquettequarter</t>
         </is>
       </c>
       <c r="B55">
@@ -2227,31 +2227,31 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E55">
-        <v>4.23</v>
+        <v>2.39</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>5.05</v>
+        <v>3.1</v>
       </c>
       <c r="H55">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>physicaldistancingquarter</t>
+          <t>masksquarter</t>
         </is>
       </c>
       <c r="B56">
@@ -2261,31 +2261,31 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E56">
-        <v>1.38</v>
+        <v>4.23</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>1.69</v>
+        <v>5.05</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>cohortingorstaggeringquarter</t>
+          <t>physicaldistancingquarter</t>
         </is>
       </c>
       <c r="B57">
@@ -2295,31 +2295,31 @@
         <v>0</v>
       </c>
       <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>1.38</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1.69</v>
+      </c>
+      <c r="H57">
         <v>3</v>
       </c>
-      <c r="E57">
-        <v>0.59</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>1.13</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>testingandscreeningquarter</t>
+          <t>cohortingorstaggeringquarter</t>
         </is>
       </c>
       <c r="B58">
@@ -2329,31 +2329,31 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>1.56</v>
+        <v>0.59</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>2.64</v>
+        <v>1.13</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>stayhomequarter</t>
+          <t>testingandscreeningquarter</t>
         </is>
       </c>
       <c r="B59">
@@ -2363,31 +2363,31 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59">
-        <v>2.39</v>
+        <v>1.56</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>2.93</v>
+        <v>2.64</v>
       </c>
       <c r="H59">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>traceandquarantinequarter</t>
+          <t>stayhomequarter</t>
         </is>
       </c>
       <c r="B60">
@@ -2397,16 +2397,16 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60">
-        <v>2.65</v>
+        <v>2.39</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>3.45</v>
+        <v>2.93</v>
       </c>
       <c r="H60">
         <v>6</v>
@@ -2421,7 +2421,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>cleaningquarter</t>
+          <t>traceandquarantinequarter</t>
         </is>
       </c>
       <c r="B61">
@@ -2431,31 +2431,31 @@
         <v>0</v>
       </c>
       <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>2.65</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>3.45</v>
+      </c>
+      <c r="H61">
         <v>6</v>
       </c>
-      <c r="E61">
-        <v>1.38</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>2.1</v>
-      </c>
-      <c r="H61">
-        <v>3</v>
-      </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ventilationquarter</t>
+          <t>cleaningquarter</t>
         </is>
       </c>
       <c r="B62">
@@ -2465,16 +2465,16 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E62">
-        <v>1.9</v>
+        <v>1.38</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H62">
         <v>3</v>
@@ -2489,7 +2489,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>vaccinationquarter.nonzero</t>
+          <t>ventilationquarter</t>
         </is>
       </c>
       <c r="B63">
@@ -2499,31 +2499,31 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E63">
-        <v>0.33</v>
+        <v>1.9</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0.47</v>
+        <v>3</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>etiquettequarter.nonzero</t>
+          <t>vaccinationquarter.nonzero</t>
         </is>
       </c>
       <c r="B64">
@@ -2536,13 +2536,13 @@
         <v>1</v>
       </c>
       <c r="E64">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -2557,7 +2557,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>masksquarter.nonzero</t>
+          <t>etiquettequarter.nonzero</t>
         </is>
       </c>
       <c r="B65">
@@ -2570,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="E65">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2591,7 +2591,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>physicaldistancingquarter.nonzero</t>
+          <t>masksquarter.nonzero</t>
         </is>
       </c>
       <c r="B66">
@@ -2604,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>cohortingorstaggeringquarter.nonzero</t>
+          <t>physicaldistancingquarter.nonzero</t>
         </is>
       </c>
       <c r="B67">
@@ -2638,28 +2638,28 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>testingandscreeningquarter.nonzero</t>
+          <t>cohortingorstaggeringquarter.nonzero</t>
         </is>
       </c>
       <c r="B68">
@@ -2672,28 +2672,28 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>stayhomequarter.nonzero</t>
+          <t>testingandscreeningquarter.nonzero</t>
         </is>
       </c>
       <c r="B69">
@@ -2706,13 +2706,13 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -2727,7 +2727,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>traceandquarantinequarter.nonzero</t>
+          <t>stayhomequarter.nonzero</t>
         </is>
       </c>
       <c r="B70">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -2761,7 +2761,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>cleaningquarter.nonzero</t>
+          <t>traceandquarantinequarter.nonzero</t>
         </is>
       </c>
       <c r="B71">
@@ -2774,13 +2774,13 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -2795,7 +2795,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ventilationquarter.nonzero</t>
+          <t>cleaningquarter.nonzero</t>
         </is>
       </c>
       <c r="B72">
@@ -2808,21 +2808,55 @@
         <v>1</v>
       </c>
       <c r="E72">
+        <v>0.37</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0.48</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ventilationquarter.nonzero</t>
+        </is>
+      </c>
+      <c r="B73">
+        <v>332</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
         <v>0.38</v>
       </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
         <v>0.49</v>
       </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
         <v>1</v>
       </c>
     </row>
@@ -4788,7 +4822,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5194,26 +5228,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>percentamericanindianoralaskanative</t>
+          <t>cntycaseschange</t>
         </is>
       </c>
       <c r="B12">
-        <v>-0.036</v>
+        <v>-0.004</v>
       </c>
       <c r="C12">
-        <v>-0.652</v>
+        <v>-0.068</v>
       </c>
       <c r="D12">
-        <v>0.515</v>
+        <v>0.946</v>
       </c>
       <c r="E12">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F12">
-        <v>-0.144</v>
+        <v>-0.111</v>
       </c>
       <c r="G12">
-        <v>0.07199999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -5229,26 +5263,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>percentasian</t>
+          <t>percentamericanindianoralaskanative</t>
         </is>
       </c>
       <c r="B13">
-        <v>-0.003</v>
+        <v>-0.036</v>
       </c>
       <c r="C13">
-        <v>-0.05</v>
+        <v>-0.652</v>
       </c>
       <c r="D13">
-        <v>0.96</v>
+        <v>0.515</v>
       </c>
       <c r="E13">
         <v>327</v>
       </c>
       <c r="F13">
-        <v>-0.111</v>
+        <v>-0.144</v>
       </c>
       <c r="G13">
-        <v>0.105</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -5264,26 +5298,26 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>percentblackorafricanamerican</t>
+          <t>percentasian</t>
         </is>
       </c>
       <c r="B14">
-        <v>-0.032</v>
+        <v>-0.003</v>
       </c>
       <c r="C14">
-        <v>-0.586</v>
+        <v>-0.05</v>
       </c>
       <c r="D14">
-        <v>0.5580000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="E14">
         <v>327</v>
       </c>
       <c r="F14">
-        <v>-0.14</v>
+        <v>-0.111</v>
       </c>
       <c r="G14">
-        <v>0.076</v>
+        <v>0.105</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -5299,26 +5333,26 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>percenthispaniclatino</t>
+          <t>percentblackorafricanamerican</t>
         </is>
       </c>
       <c r="B15">
-        <v>0.065</v>
+        <v>-0.032</v>
       </c>
       <c r="C15">
-        <v>1.18</v>
+        <v>-0.586</v>
       </c>
       <c r="D15">
-        <v>0.239</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="E15">
         <v>327</v>
       </c>
       <c r="F15">
-        <v>-0.043</v>
+        <v>-0.14</v>
       </c>
       <c r="G15">
-        <v>0.172</v>
+        <v>0.076</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -5334,26 +5368,26 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>percentnativehawaiianorotherpacificislander</t>
+          <t>percenthispaniclatino</t>
         </is>
       </c>
       <c r="B16">
-        <v>0.012</v>
+        <v>0.065</v>
       </c>
       <c r="C16">
-        <v>0.219</v>
+        <v>1.18</v>
       </c>
       <c r="D16">
-        <v>0.827</v>
+        <v>0.239</v>
       </c>
       <c r="E16">
         <v>327</v>
       </c>
       <c r="F16">
-        <v>-0.096</v>
+        <v>-0.043</v>
       </c>
       <c r="G16">
-        <v>0.12</v>
+        <v>0.172</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -5369,26 +5403,26 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>percentnotspecified</t>
+          <t>percentnativehawaiianorotherpacificislander</t>
         </is>
       </c>
       <c r="B17">
-        <v>-0.04</v>
+        <v>0.012</v>
       </c>
       <c r="C17">
-        <v>-0.722</v>
+        <v>0.219</v>
       </c>
       <c r="D17">
-        <v>0.471</v>
+        <v>0.827</v>
       </c>
       <c r="E17">
         <v>327</v>
       </c>
       <c r="F17">
-        <v>-0.147</v>
+        <v>-0.096</v>
       </c>
       <c r="G17">
-        <v>0.06900000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -5404,26 +5438,26 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>percenttwoormoreraces</t>
+          <t>percentnotspecified</t>
         </is>
       </c>
       <c r="B18">
-        <v>-0.055</v>
+        <v>-0.04</v>
       </c>
       <c r="C18">
-        <v>-1.003</v>
+        <v>-0.722</v>
       </c>
       <c r="D18">
-        <v>0.316</v>
+        <v>0.471</v>
       </c>
       <c r="E18">
         <v>327</v>
       </c>
       <c r="F18">
-        <v>-0.163</v>
+        <v>-0.147</v>
       </c>
       <c r="G18">
-        <v>0.053</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -5439,26 +5473,26 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>percentwhite</t>
+          <t>percenttwoormoreraces</t>
         </is>
       </c>
       <c r="B19">
-        <v>-0.016</v>
+        <v>-0.055</v>
       </c>
       <c r="C19">
-        <v>-0.292</v>
+        <v>-1.003</v>
       </c>
       <c r="D19">
-        <v>0.77</v>
+        <v>0.316</v>
       </c>
       <c r="E19">
         <v>327</v>
       </c>
       <c r="F19">
-        <v>-0.124</v>
+        <v>-0.163</v>
       </c>
       <c r="G19">
-        <v>0.092</v>
+        <v>0.053</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -5474,26 +5508,26 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>percentstudentsfreereducedlunch</t>
+          <t>percentwhite</t>
         </is>
       </c>
       <c r="B20">
-        <v>-0.037</v>
+        <v>-0.016</v>
       </c>
       <c r="C20">
-        <v>-0.666</v>
+        <v>-0.292</v>
       </c>
       <c r="D20">
-        <v>0.506</v>
+        <v>0.77</v>
       </c>
       <c r="E20">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F20">
-        <v>-0.146</v>
+        <v>-0.124</v>
       </c>
       <c r="G20">
-        <v>0.07199999999999999</v>
+        <v>0.092</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -5509,26 +5543,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>rplthemes</t>
+          <t>percentstudentsfreereducedlunch</t>
         </is>
       </c>
       <c r="B21">
-        <v>-0.015</v>
+        <v>-0.037</v>
       </c>
       <c r="C21">
-        <v>-0.274</v>
+        <v>-0.666</v>
       </c>
       <c r="D21">
-        <v>0.784</v>
+        <v>0.506</v>
       </c>
       <c r="E21">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="F21">
-        <v>-0.123</v>
+        <v>-0.146</v>
       </c>
       <c r="G21">
-        <v>0.093</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -5544,26 +5578,26 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>vaccinationquarter</t>
+          <t>rplthemes</t>
         </is>
       </c>
       <c r="B22">
-        <v>-0.109</v>
+        <v>-0.015</v>
       </c>
       <c r="C22">
-        <v>-1.999</v>
+        <v>-0.274</v>
       </c>
       <c r="D22">
-        <v>0.046</v>
+        <v>0.784</v>
       </c>
       <c r="E22">
         <v>330</v>
       </c>
       <c r="F22">
-        <v>-0.215</v>
+        <v>-0.123</v>
       </c>
       <c r="G22">
-        <v>-0.002</v>
+        <v>0.093</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -5579,26 +5613,26 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>etiquettequarter</t>
+          <t>vaccinationquarter</t>
         </is>
       </c>
       <c r="B23">
-        <v>-0.096</v>
+        <v>-0.109</v>
       </c>
       <c r="C23">
-        <v>-1.745</v>
+        <v>-1.999</v>
       </c>
       <c r="D23">
-        <v>0.082</v>
+        <v>0.046</v>
       </c>
       <c r="E23">
         <v>330</v>
       </c>
       <c r="F23">
-        <v>-0.201</v>
+        <v>-0.215</v>
       </c>
       <c r="G23">
-        <v>0.012</v>
+        <v>-0.002</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -5614,26 +5648,26 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>masksquarter</t>
+          <t>etiquettequarter</t>
         </is>
       </c>
       <c r="B24">
-        <v>-0.08400000000000001</v>
+        <v>-0.096</v>
       </c>
       <c r="C24">
-        <v>-1.534</v>
+        <v>-1.745</v>
       </c>
       <c r="D24">
-        <v>0.126</v>
+        <v>0.082</v>
       </c>
       <c r="E24">
         <v>330</v>
       </c>
       <c r="F24">
-        <v>-0.19</v>
+        <v>-0.201</v>
       </c>
       <c r="G24">
-        <v>0.024</v>
+        <v>0.012</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -5649,26 +5683,26 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>physicaldistancingquarter</t>
+          <t>masksquarter</t>
         </is>
       </c>
       <c r="B25">
-        <v>-0.068</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="C25">
-        <v>-1.23</v>
+        <v>-1.534</v>
       </c>
       <c r="D25">
-        <v>0.22</v>
+        <v>0.126</v>
       </c>
       <c r="E25">
         <v>330</v>
       </c>
       <c r="F25">
-        <v>-0.174</v>
+        <v>-0.19</v>
       </c>
       <c r="G25">
-        <v>0.04</v>
+        <v>0.024</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -5684,26 +5718,26 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>cohortingorstaggeringquarter</t>
+          <t>physicaldistancingquarter</t>
         </is>
       </c>
       <c r="B26">
-        <v>-0.074</v>
+        <v>-0.068</v>
       </c>
       <c r="C26">
-        <v>-1.353</v>
+        <v>-1.23</v>
       </c>
       <c r="D26">
-        <v>0.177</v>
+        <v>0.22</v>
       </c>
       <c r="E26">
         <v>330</v>
       </c>
       <c r="F26">
-        <v>-0.18</v>
+        <v>-0.174</v>
       </c>
       <c r="G26">
-        <v>0.034</v>
+        <v>0.04</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -5719,26 +5753,26 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>testingandscreeningquarter</t>
+          <t>cohortingorstaggeringquarter</t>
         </is>
       </c>
       <c r="B27">
-        <v>-0.037</v>
+        <v>-0.074</v>
       </c>
       <c r="C27">
-        <v>-0.667</v>
+        <v>-1.353</v>
       </c>
       <c r="D27">
-        <v>0.505</v>
+        <v>0.177</v>
       </c>
       <c r="E27">
         <v>330</v>
       </c>
       <c r="F27">
-        <v>-0.144</v>
+        <v>-0.18</v>
       </c>
       <c r="G27">
-        <v>0.07099999999999999</v>
+        <v>0.034</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -5754,26 +5788,26 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>stayhomequarter</t>
+          <t>testingandscreeningquarter</t>
         </is>
       </c>
       <c r="B28">
-        <v>-0.074</v>
+        <v>-0.037</v>
       </c>
       <c r="C28">
-        <v>-1.341</v>
+        <v>-0.667</v>
       </c>
       <c r="D28">
-        <v>0.181</v>
+        <v>0.505</v>
       </c>
       <c r="E28">
         <v>330</v>
       </c>
       <c r="F28">
-        <v>-0.18</v>
+        <v>-0.144</v>
       </c>
       <c r="G28">
-        <v>0.034</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -5789,26 +5823,26 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>traceandquarantinequarter</t>
+          <t>stayhomequarter</t>
         </is>
       </c>
       <c r="B29">
-        <v>-0.089</v>
+        <v>-0.074</v>
       </c>
       <c r="C29">
-        <v>-1.628</v>
+        <v>-1.341</v>
       </c>
       <c r="D29">
-        <v>0.104</v>
+        <v>0.181</v>
       </c>
       <c r="E29">
         <v>330</v>
       </c>
       <c r="F29">
-        <v>-0.195</v>
+        <v>-0.18</v>
       </c>
       <c r="G29">
-        <v>0.019</v>
+        <v>0.034</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -5824,26 +5858,26 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>cleaningquarter</t>
+          <t>traceandquarantinequarter</t>
         </is>
       </c>
       <c r="B30">
-        <v>-0.058</v>
+        <v>-0.089</v>
       </c>
       <c r="C30">
-        <v>-1.058</v>
+        <v>-1.628</v>
       </c>
       <c r="D30">
-        <v>0.291</v>
+        <v>0.104</v>
       </c>
       <c r="E30">
         <v>330</v>
       </c>
       <c r="F30">
-        <v>-0.165</v>
+        <v>-0.195</v>
       </c>
       <c r="G30">
-        <v>0.05</v>
+        <v>0.019</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -5859,26 +5893,26 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ventilationquarter</t>
+          <t>cleaningquarter</t>
         </is>
       </c>
       <c r="B31">
-        <v>-0.07199999999999999</v>
+        <v>-0.058</v>
       </c>
       <c r="C31">
-        <v>-1.306</v>
+        <v>-1.058</v>
       </c>
       <c r="D31">
-        <v>0.192</v>
+        <v>0.291</v>
       </c>
       <c r="E31">
         <v>330</v>
       </c>
       <c r="F31">
-        <v>-0.178</v>
+        <v>-0.165</v>
       </c>
       <c r="G31">
-        <v>0.036</v>
+        <v>0.05</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -5894,26 +5928,26 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>vaccinationquarter.nonzero</t>
+          <t>ventilationquarter</t>
         </is>
       </c>
       <c r="B32">
-        <v>-0.104</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="C32">
-        <v>-1.893</v>
+        <v>-1.306</v>
       </c>
       <c r="D32">
-        <v>0.059</v>
+        <v>0.192</v>
       </c>
       <c r="E32">
         <v>330</v>
       </c>
       <c r="F32">
-        <v>-0.209</v>
+        <v>-0.178</v>
       </c>
       <c r="G32">
-        <v>0.004</v>
+        <v>0.036</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -5929,26 +5963,26 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>etiquettequarter.nonzero</t>
+          <t>vaccinationquarter.nonzero</t>
         </is>
       </c>
       <c r="B33">
-        <v>-0.09</v>
+        <v>-0.104</v>
       </c>
       <c r="C33">
-        <v>-1.637</v>
+        <v>-1.893</v>
       </c>
       <c r="D33">
-        <v>0.103</v>
+        <v>0.059</v>
       </c>
       <c r="E33">
         <v>330</v>
       </c>
       <c r="F33">
-        <v>-0.195</v>
+        <v>-0.209</v>
       </c>
       <c r="G33">
-        <v>0.018</v>
+        <v>0.004</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -5964,26 +5998,26 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>masksquarter.nonzero</t>
+          <t>etiquettequarter.nonzero</t>
         </is>
       </c>
       <c r="B34">
-        <v>-0.06900000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="C34">
-        <v>-1.25</v>
+        <v>-1.637</v>
       </c>
       <c r="D34">
-        <v>0.212</v>
+        <v>0.103</v>
       </c>
       <c r="E34">
         <v>330</v>
       </c>
       <c r="F34">
-        <v>-0.175</v>
+        <v>-0.195</v>
       </c>
       <c r="G34">
-        <v>0.039</v>
+        <v>0.018</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -5999,26 +6033,26 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>physicaldistancingquarter.nonzero</t>
+          <t>masksquarter.nonzero</t>
         </is>
       </c>
       <c r="B35">
-        <v>-0.052</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="C35">
-        <v>-0.946</v>
+        <v>-1.25</v>
       </c>
       <c r="D35">
-        <v>0.345</v>
+        <v>0.212</v>
       </c>
       <c r="E35">
         <v>330</v>
       </c>
       <c r="F35">
-        <v>-0.159</v>
+        <v>-0.175</v>
       </c>
       <c r="G35">
-        <v>0.056</v>
+        <v>0.039</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -6034,26 +6068,26 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>cohortingorstaggeringquarter.nonzero</t>
+          <t>physicaldistancingquarter.nonzero</t>
         </is>
       </c>
       <c r="B36">
-        <v>-0.076</v>
+        <v>-0.052</v>
       </c>
       <c r="C36">
-        <v>-1.391</v>
+        <v>-0.946</v>
       </c>
       <c r="D36">
-        <v>0.165</v>
+        <v>0.345</v>
       </c>
       <c r="E36">
         <v>330</v>
       </c>
       <c r="F36">
-        <v>-0.182</v>
+        <v>-0.159</v>
       </c>
       <c r="G36">
-        <v>0.032</v>
+        <v>0.056</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -6069,26 +6103,26 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>testingandscreeningquarter.nonzero</t>
+          <t>cohortingorstaggeringquarter.nonzero</t>
         </is>
       </c>
       <c r="B37">
-        <v>-0.038</v>
+        <v>-0.076</v>
       </c>
       <c r="C37">
-        <v>-0.6889999999999999</v>
+        <v>-1.391</v>
       </c>
       <c r="D37">
-        <v>0.491</v>
+        <v>0.165</v>
       </c>
       <c r="E37">
         <v>330</v>
       </c>
       <c r="F37">
-        <v>-0.145</v>
+        <v>-0.182</v>
       </c>
       <c r="G37">
-        <v>0.07000000000000001</v>
+        <v>0.032</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -6104,26 +6138,26 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>stayhomequarter.nonzero</t>
+          <t>testingandscreeningquarter.nonzero</t>
         </is>
       </c>
       <c r="B38">
-        <v>-0.082</v>
+        <v>-0.038</v>
       </c>
       <c r="C38">
-        <v>-1.501</v>
+        <v>-0.6889999999999999</v>
       </c>
       <c r="D38">
-        <v>0.134</v>
+        <v>0.491</v>
       </c>
       <c r="E38">
         <v>330</v>
       </c>
       <c r="F38">
-        <v>-0.188</v>
+        <v>-0.145</v>
       </c>
       <c r="G38">
-        <v>0.026</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -6139,26 +6173,26 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>traceandquarantinequarter.nonzero</t>
+          <t>stayhomequarter.nonzero</t>
         </is>
       </c>
       <c r="B39">
-        <v>-0.08799999999999999</v>
+        <v>-0.082</v>
       </c>
       <c r="C39">
-        <v>-1.601</v>
+        <v>-1.501</v>
       </c>
       <c r="D39">
-        <v>0.11</v>
+        <v>0.134</v>
       </c>
       <c r="E39">
         <v>330</v>
       </c>
       <c r="F39">
-        <v>-0.194</v>
+        <v>-0.188</v>
       </c>
       <c r="G39">
-        <v>0.02</v>
+        <v>0.026</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -6174,26 +6208,26 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cleaningquarter.nonzero</t>
+          <t>traceandquarantinequarter.nonzero</t>
         </is>
       </c>
       <c r="B40">
-        <v>-0.06</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="C40">
-        <v>-1.099</v>
+        <v>-1.601</v>
       </c>
       <c r="D40">
-        <v>0.273</v>
+        <v>0.11</v>
       </c>
       <c r="E40">
         <v>330</v>
       </c>
       <c r="F40">
-        <v>-0.167</v>
+        <v>-0.194</v>
       </c>
       <c r="G40">
-        <v>0.048</v>
+        <v>0.02</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -6209,33 +6243,68 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ventilationquarter.nonzero</t>
+          <t>cleaningquarter.nonzero</t>
         </is>
       </c>
       <c r="B41">
-        <v>-0.073</v>
+        <v>-0.06</v>
       </c>
       <c r="C41">
-        <v>-1.332</v>
+        <v>-1.099</v>
       </c>
       <c r="D41">
-        <v>0.184</v>
+        <v>0.273</v>
       </c>
       <c r="E41">
         <v>330</v>
       </c>
       <c r="F41">
+        <v>-0.167</v>
+      </c>
+      <c r="G41">
+        <v>0.048</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Pearson's product-moment correlation</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ventilationquarter.nonzero</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>-0.073</v>
+      </c>
+      <c r="C42">
+        <v>-1.332</v>
+      </c>
+      <c r="D42">
+        <v>0.184</v>
+      </c>
+      <c r="E42">
+        <v>330</v>
+      </c>
+      <c r="F42">
         <v>-0.179</v>
       </c>
-      <c r="G41">
+      <c r="G42">
         <v>0.035</v>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Pearson's product-moment correlation</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>two.sided</t>
         </is>

--- a/raw_summary_statistics.xlsx
+++ b/raw_summary_statistics.xlsx
@@ -419,31 +419,31 @@
         </is>
       </c>
       <c r="B2">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C2">
-        <v>-9.67</v>
+        <v>-2.87</v>
       </c>
       <c r="D2">
-        <v>44.22</v>
+        <v>7.85</v>
       </c>
       <c r="E2">
-        <v>1.51</v>
+        <v>1.19</v>
       </c>
       <c r="F2">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="G2">
-        <v>3.51</v>
+        <v>1.78</v>
       </c>
       <c r="H2">
-        <v>2.39</v>
+        <v>2.23</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.39352387736325</v>
+        <v>2.234706616729089</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -666,13 +666,13 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C13">
         <v>-13.67</v>
@@ -802,22 +802,22 @@
         <v>14747.43</v>
       </c>
       <c r="E13">
-        <v>850.14</v>
+        <v>804.79</v>
       </c>
       <c r="F13">
-        <v>189.05</v>
+        <v>188.95</v>
       </c>
       <c r="G13">
-        <v>2407.81</v>
+        <v>2319.21</v>
       </c>
       <c r="H13">
-        <v>498.24</v>
+        <v>502.43</v>
       </c>
       <c r="I13">
-        <v>31.09533333333334</v>
+        <v>26.262</v>
       </c>
       <c r="J13">
-        <v>529.3333333333333</v>
+        <v>528.6904999999999</v>
       </c>
     </row>
     <row r="14">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -836,13 +836,13 @@
         <v>98.7</v>
       </c>
       <c r="E14">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="F14">
         <v>0.2</v>
       </c>
       <c r="G14">
-        <v>8.98</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="H14">
         <v>0.6</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>56</v>
       </c>
       <c r="E15">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="F15">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="G15">
-        <v>7.8</v>
+        <v>7.79</v>
       </c>
       <c r="H15">
         <v>3.5</v>
@@ -895,31 +895,31 @@
         </is>
       </c>
       <c r="B16">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>99.5</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E16">
-        <v>13.46</v>
+        <v>13.19</v>
       </c>
       <c r="F16">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="G16">
-        <v>21.79</v>
+        <v>21.61</v>
       </c>
       <c r="H16">
-        <v>14.9</v>
+        <v>14.55</v>
       </c>
       <c r="I16">
-        <v>0.8</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="J16">
-        <v>15.7</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="17">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>100</v>
       </c>
       <c r="E17">
-        <v>25.09</v>
+        <v>24.71</v>
       </c>
       <c r="F17">
         <v>14.4</v>
       </c>
       <c r="G17">
-        <v>26.42</v>
+        <v>25.92</v>
       </c>
       <c r="H17">
-        <v>29.7</v>
+        <v>27.4</v>
       </c>
       <c r="I17">
-        <v>5.899999999999999</v>
+        <v>6.049999999999999</v>
       </c>
       <c r="J17">
-        <v>35.6</v>
+        <v>33.45</v>
       </c>
     </row>
     <row r="18">
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="H18">
         <v>0.2</v>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1040,13 +1040,13 @@
         <v>23.8</v>
       </c>
       <c r="E20">
-        <v>3.87</v>
+        <v>3.88</v>
       </c>
       <c r="F20">
         <v>3.4</v>
       </c>
       <c r="G20">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1074,22 +1074,22 @@
         <v>97.7</v>
       </c>
       <c r="E21">
-        <v>51.7</v>
+        <v>52.31</v>
       </c>
       <c r="F21">
-        <v>56.9</v>
+        <v>57.25</v>
       </c>
       <c r="G21">
-        <v>31.54</v>
+        <v>31.35</v>
       </c>
       <c r="H21">
-        <v>54.2</v>
+        <v>53.17</v>
       </c>
       <c r="I21">
-        <v>25.8</v>
+        <v>26.875</v>
       </c>
       <c r="J21">
-        <v>80</v>
+        <v>80.05</v>
       </c>
     </row>
     <row r="22">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="B22">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C22">
         <v>0.4</v>
@@ -1108,22 +1108,22 @@
         <v>100</v>
       </c>
       <c r="E22">
-        <v>51.13</v>
+        <v>50.45</v>
       </c>
       <c r="F22">
-        <v>49.65</v>
+        <v>49</v>
       </c>
       <c r="G22">
-        <v>28.4</v>
+        <v>28.26</v>
       </c>
       <c r="H22">
-        <v>46.67</v>
+        <v>46.5</v>
       </c>
       <c r="I22">
-        <v>28.075</v>
+        <v>27.5</v>
       </c>
       <c r="J22">
-        <v>74.75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1142,22 +1142,22 @@
         <v>99.94</v>
       </c>
       <c r="E23">
-        <v>51.7</v>
+        <v>51.55</v>
       </c>
       <c r="F23">
-        <v>53.34</v>
+        <v>53.47</v>
       </c>
       <c r="G23">
-        <v>27.8</v>
+        <v>27.89</v>
       </c>
       <c r="H23">
-        <v>47.71</v>
+        <v>48.52</v>
       </c>
       <c r="I23">
-        <v>27.8</v>
+        <v>26.86</v>
       </c>
       <c r="J23">
-        <v>75.515</v>
+        <v>75.38</v>
       </c>
     </row>
   </sheetData>
@@ -1247,34 +1247,34 @@
         </is>
       </c>
       <c r="B2">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2">
-        <v>0.6879999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="E2">
-        <v>1.59</v>
+        <v>1.244</v>
       </c>
       <c r="F2">
-        <v>0.902</v>
+        <v>0.819</v>
       </c>
       <c r="G2">
-        <v>2.148</v>
+        <v>1.657</v>
       </c>
       <c r="H2">
-        <v>0.034</v>
+        <v>0.103</v>
       </c>
       <c r="I2">
-        <v>120.642</v>
+        <v>53.321</v>
       </c>
       <c r="J2">
-        <v>0.054</v>
+        <v>-0.089</v>
       </c>
       <c r="K2">
-        <v>1.322</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -1294,34 +1294,34 @@
         </is>
       </c>
       <c r="B3">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C3">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D3">
-        <v>0.589</v>
+        <v>0.18</v>
       </c>
       <c r="E3">
-        <v>1.659</v>
+        <v>1.24</v>
       </c>
       <c r="F3">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="G3">
-        <v>1.802</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="H3">
-        <v>0.073</v>
+        <v>0.415</v>
       </c>
       <c r="I3">
-        <v>289.207</v>
+        <v>150.689</v>
       </c>
       <c r="J3">
-        <v>-0.054</v>
+        <v>-0.255</v>
       </c>
       <c r="K3">
-        <v>1.233</v>
+        <v>0.615</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -1341,34 +1341,34 @@
         </is>
       </c>
       <c r="B4">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C4">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>0.717</v>
+        <v>0.223</v>
       </c>
       <c r="E4">
-        <v>1.692</v>
+        <v>1.253</v>
       </c>
       <c r="F4">
-        <v>0.976</v>
+        <v>1.029</v>
       </c>
       <c r="G4">
-        <v>2.291</v>
+        <v>1.074</v>
       </c>
       <c r="H4">
-        <v>0.023</v>
+        <v>0.285</v>
       </c>
       <c r="I4">
-        <v>313.816</v>
+        <v>173.795</v>
       </c>
       <c r="J4">
-        <v>0.101</v>
+        <v>-0.187</v>
       </c>
       <c r="K4">
-        <v>1.332</v>
+        <v>0.634</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -1388,34 +1388,34 @@
         </is>
       </c>
       <c r="B5">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D5">
-        <v>0.221</v>
+        <v>0.458</v>
       </c>
       <c r="E5">
-        <v>1.537</v>
+        <v>1.251</v>
       </c>
       <c r="F5">
-        <v>1.316</v>
+        <v>0.793</v>
       </c>
       <c r="G5">
-        <v>0.422</v>
+        <v>1.415</v>
       </c>
       <c r="H5">
-        <v>0.675</v>
+        <v>0.163</v>
       </c>
       <c r="I5">
-        <v>62.148</v>
+        <v>47.55</v>
       </c>
       <c r="J5">
-        <v>-0.826</v>
+        <v>-0.193</v>
       </c>
       <c r="K5">
-        <v>1.268</v>
+        <v>1.108</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -1435,34 +1435,34 @@
         </is>
       </c>
       <c r="B6">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C6">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D6">
-        <v>0.502</v>
+        <v>0.133</v>
       </c>
       <c r="E6">
-        <v>1.705</v>
+        <v>1.247</v>
       </c>
       <c r="F6">
-        <v>1.203</v>
+        <v>1.114</v>
       </c>
       <c r="G6">
-        <v>1.448</v>
+        <v>0.663</v>
       </c>
       <c r="H6">
-        <v>0.149</v>
+        <v>0.508</v>
       </c>
       <c r="I6">
-        <v>312.624</v>
+        <v>286.56</v>
       </c>
       <c r="J6">
-        <v>-0.18</v>
+        <v>-0.261</v>
       </c>
       <c r="K6">
-        <v>1.185</v>
+        <v>0.527</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -1482,34 +1482,34 @@
         </is>
       </c>
       <c r="B7">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C7">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D7">
-        <v>0.493</v>
+        <v>0.178</v>
       </c>
       <c r="E7">
-        <v>1.648</v>
+        <v>1.245</v>
       </c>
       <c r="F7">
-        <v>1.155</v>
+        <v>1.067</v>
       </c>
       <c r="G7">
-        <v>1.569</v>
+        <v>0.86</v>
       </c>
       <c r="H7">
-        <v>0.118</v>
+        <v>0.391</v>
       </c>
       <c r="I7">
-        <v>328.567</v>
+        <v>192.197</v>
       </c>
       <c r="J7">
-        <v>-0.125</v>
+        <v>-0.23</v>
       </c>
       <c r="K7">
-        <v>1.112</v>
+        <v>0.586</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -1529,34 +1529,34 @@
         </is>
       </c>
       <c r="B8">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C8">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D8">
-        <v>0.631</v>
+        <v>0.198</v>
       </c>
       <c r="E8">
-        <v>1.704</v>
+        <v>1.257</v>
       </c>
       <c r="F8">
-        <v>1.073</v>
+        <v>1.059</v>
       </c>
       <c r="G8">
-        <v>1.95</v>
+        <v>0.973</v>
       </c>
       <c r="H8">
-        <v>0.052</v>
+        <v>0.331</v>
       </c>
       <c r="I8">
-        <v>329.95</v>
+        <v>223.945</v>
       </c>
       <c r="J8">
-        <v>-0.006</v>
+        <v>-0.203</v>
       </c>
       <c r="K8">
-        <v>1.267</v>
+        <v>0.598</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1576,34 +1576,34 @@
         </is>
       </c>
       <c r="B9">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="C9">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D9">
-        <v>0.285</v>
+        <v>-0.228</v>
       </c>
       <c r="E9">
-        <v>1.575</v>
+        <v>1.138</v>
       </c>
       <c r="F9">
-        <v>1.291</v>
+        <v>1.366</v>
       </c>
       <c r="G9">
-        <v>0.899</v>
+        <v>-1.063</v>
       </c>
       <c r="H9">
-        <v>0.369</v>
+        <v>0.289</v>
       </c>
       <c r="I9">
-        <v>290.631</v>
+        <v>150.564</v>
       </c>
       <c r="J9">
-        <v>-0.338</v>
+        <v>-0.651</v>
       </c>
       <c r="K9">
-        <v>0.908</v>
+        <v>0.195</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1623,34 +1623,34 @@
         </is>
       </c>
       <c r="B10">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>0.745</v>
+        <v>0.374</v>
       </c>
       <c r="E10">
-        <v>1.54</v>
+        <v>1.211</v>
       </c>
       <c r="F10">
-        <v>0.796</v>
+        <v>0.837</v>
       </c>
       <c r="G10">
-        <v>1.587</v>
+        <v>0.804</v>
       </c>
       <c r="H10">
-        <v>0.128</v>
+        <v>0.435</v>
       </c>
       <c r="I10">
-        <v>20.919</v>
+        <v>14.369</v>
       </c>
       <c r="J10">
-        <v>-0.232</v>
+        <v>-0.621</v>
       </c>
       <c r="K10">
-        <v>1.721</v>
+        <v>1.369</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1670,34 +1670,34 @@
         </is>
       </c>
       <c r="B11">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C11">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D11">
-        <v>0.832</v>
+        <v>0.295</v>
       </c>
       <c r="E11">
-        <v>1.767</v>
+        <v>1.287</v>
       </c>
       <c r="F11">
-        <v>0.9360000000000001</v>
+        <v>0.992</v>
       </c>
       <c r="G11">
-        <v>2.638</v>
+        <v>1.486</v>
       </c>
       <c r="H11">
-        <v>0.008999999999999999</v>
+        <v>0.139</v>
       </c>
       <c r="I11">
-        <v>327.628</v>
+        <v>234.422</v>
       </c>
       <c r="J11">
-        <v>0.212</v>
+        <v>-0.096</v>
       </c>
       <c r="K11">
-        <v>1.452</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1765,16 +1765,16 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>67.88558215433594</v>
+        <v>118.4011847082842</v>
       </c>
       <c r="D2">
-        <v>22.62852738477865</v>
+        <v>39.46706156942805</v>
       </c>
       <c r="E2">
-        <v>1.84944167911477</v>
+        <v>14.01321851643154</v>
       </c>
       <c r="F2">
-        <v>0.1380247155474199</v>
+        <v>1.364254211974835e-08</v>
       </c>
     </row>
     <row r="3">
@@ -1787,16 +1787,16 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>37.80458827014905</v>
+        <v>4.204201248483636</v>
       </c>
       <c r="D3">
-        <v>9.451147067537264</v>
+        <v>1.051050312120909</v>
       </c>
       <c r="E3">
-        <v>0.7643629861086481</v>
+        <v>0.3290826750367163</v>
       </c>
       <c r="F3">
-        <v>0.5490731125954551</v>
+        <v>0.8583529801424807</v>
       </c>
     </row>
     <row r="4">
@@ -1809,16 +1809,16 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>611.9133654303475</v>
+        <v>310.2901090562785</v>
       </c>
       <c r="D4">
-        <v>32.20596660159724</v>
+        <v>16.33105837138308</v>
       </c>
       <c r="E4">
-        <v>2.896453671769497</v>
+        <v>7.043194419655037</v>
       </c>
       <c r="F4">
-        <v>6.529598745287697e-05</v>
+        <v>1.867827595169419e-15</v>
       </c>
     </row>
   </sheetData>
@@ -1888,22 +1888,22 @@
         </is>
       </c>
       <c r="B2">
-        <v>-0.004</v>
+        <v>0.007</v>
       </c>
       <c r="C2">
-        <v>-0.068</v>
+        <v>0.116</v>
       </c>
       <c r="D2">
-        <v>0.946</v>
+        <v>0.908</v>
       </c>
       <c r="E2">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="F2">
-        <v>-0.111</v>
+        <v>-0.104</v>
       </c>
       <c r="G2">
-        <v>0.104</v>
+        <v>0.117</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.036</v>
+        <v>-0.047</v>
       </c>
       <c r="C3">
-        <v>-0.652</v>
+        <v>-0.832</v>
       </c>
       <c r="D3">
-        <v>0.515</v>
+        <v>0.406</v>
       </c>
       <c r="E3">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="F3">
-        <v>-0.144</v>
+        <v>-0.157</v>
       </c>
       <c r="G3">
-        <v>0.07199999999999999</v>
+        <v>0.064</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1958,22 +1958,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.003</v>
+        <v>0.013</v>
       </c>
       <c r="C4">
-        <v>-0.05</v>
+        <v>0.224</v>
       </c>
       <c r="D4">
-        <v>0.96</v>
+        <v>0.823</v>
       </c>
       <c r="E4">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="F4">
-        <v>-0.111</v>
+        <v>-0.098</v>
       </c>
       <c r="G4">
-        <v>0.105</v>
+        <v>0.124</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1993,22 +1993,22 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.032</v>
+        <v>-0.005</v>
       </c>
       <c r="C5">
-        <v>-0.586</v>
+        <v>-0.083</v>
       </c>
       <c r="D5">
-        <v>0.5580000000000001</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="E5">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="F5">
-        <v>-0.14</v>
+        <v>-0.116</v>
       </c>
       <c r="G5">
-        <v>0.076</v>
+        <v>0.106</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2028,22 +2028,22 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.065</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="C6">
-        <v>1.18</v>
+        <v>1.209</v>
       </c>
       <c r="D6">
-        <v>0.239</v>
+        <v>0.228</v>
       </c>
       <c r="E6">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="F6">
         <v>-0.043</v>
       </c>
       <c r="G6">
-        <v>0.172</v>
+        <v>0.178</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.012</v>
+        <v>-0.092</v>
       </c>
       <c r="C7">
-        <v>0.219</v>
+        <v>-1.633</v>
       </c>
       <c r="D7">
-        <v>0.827</v>
+        <v>0.103</v>
       </c>
       <c r="E7">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="F7">
-        <v>-0.096</v>
+        <v>-0.201</v>
       </c>
       <c r="G7">
-        <v>0.12</v>
+        <v>0.019</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -2098,22 +2098,22 @@
         </is>
       </c>
       <c r="B8">
-        <v>-0.04</v>
+        <v>-0.09</v>
       </c>
       <c r="C8">
-        <v>-0.722</v>
+        <v>-1.588</v>
       </c>
       <c r="D8">
-        <v>0.471</v>
+        <v>0.113</v>
       </c>
       <c r="E8">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="F8">
-        <v>-0.147</v>
+        <v>-0.199</v>
       </c>
       <c r="G8">
-        <v>0.06900000000000001</v>
+        <v>0.021</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -2133,22 +2133,22 @@
         </is>
       </c>
       <c r="B9">
-        <v>-0.055</v>
+        <v>-0.012</v>
       </c>
       <c r="C9">
-        <v>-1.003</v>
+        <v>-0.21</v>
       </c>
       <c r="D9">
-        <v>0.316</v>
+        <v>0.834</v>
       </c>
       <c r="E9">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="F9">
-        <v>-0.163</v>
+        <v>-0.123</v>
       </c>
       <c r="G9">
-        <v>0.053</v>
+        <v>0.099</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -2168,22 +2168,22 @@
         </is>
       </c>
       <c r="B10">
-        <v>-0.016</v>
+        <v>-0.039</v>
       </c>
       <c r="C10">
-        <v>-0.292</v>
+        <v>-0.6889999999999999</v>
       </c>
       <c r="D10">
-        <v>0.77</v>
+        <v>0.491</v>
       </c>
       <c r="E10">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="F10">
-        <v>-0.124</v>
+        <v>-0.15</v>
       </c>
       <c r="G10">
-        <v>0.092</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="B11">
-        <v>-0.037</v>
+        <v>0.023</v>
       </c>
       <c r="C11">
-        <v>-0.666</v>
+        <v>0.392</v>
       </c>
       <c r="D11">
-        <v>0.506</v>
+        <v>0.695</v>
       </c>
       <c r="E11">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="F11">
-        <v>-0.146</v>
+        <v>-0.09</v>
       </c>
       <c r="G11">
-        <v>0.07199999999999999</v>
+        <v>0.135</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B12">
-        <v>-0.015</v>
+        <v>0.062</v>
       </c>
       <c r="C12">
-        <v>-0.274</v>
+        <v>1.096</v>
       </c>
       <c r="D12">
-        <v>0.784</v>
+        <v>0.274</v>
       </c>
       <c r="E12">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="F12">
-        <v>-0.123</v>
+        <v>-0.049</v>
       </c>
       <c r="G12">
-        <v>0.093</v>
+        <v>0.171</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>

--- a/raw_summary_statistics.xlsx
+++ b/raw_summary_statistics.xlsx
@@ -419,31 +419,31 @@
         </is>
       </c>
       <c r="B2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C2">
         <v>-2.87</v>
       </c>
       <c r="D2">
-        <v>7.85</v>
+        <v>18.93</v>
       </c>
       <c r="E2">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="F2">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="G2">
-        <v>1.78</v>
+        <v>2.27</v>
       </c>
       <c r="H2">
-        <v>2.23</v>
+        <v>2.34</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.234706616729089</v>
+        <v>2.340343958812575</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C13">
         <v>-13.67</v>
@@ -802,22 +802,22 @@
         <v>14747.43</v>
       </c>
       <c r="E13">
-        <v>804.79</v>
+        <v>818.99</v>
       </c>
       <c r="F13">
-        <v>188.95</v>
+        <v>189.05</v>
       </c>
       <c r="G13">
-        <v>2319.21</v>
+        <v>2312.54</v>
       </c>
       <c r="H13">
-        <v>502.43</v>
+        <v>501.69</v>
       </c>
       <c r="I13">
-        <v>26.262</v>
+        <v>27.64283333333334</v>
       </c>
       <c r="J13">
-        <v>528.6904999999999</v>
+        <v>529.3333333333333</v>
       </c>
     </row>
     <row r="14">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -836,13 +836,13 @@
         <v>98.7</v>
       </c>
       <c r="E14">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="F14">
         <v>0.2</v>
       </c>
       <c r="G14">
-        <v>9.210000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="H14">
         <v>0.6</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>56</v>
       </c>
       <c r="E15">
-        <v>4.08</v>
+        <v>4.16</v>
       </c>
       <c r="F15">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="G15">
-        <v>7.79</v>
+        <v>7.88</v>
       </c>
       <c r="H15">
         <v>3.5</v>
@@ -895,31 +895,31 @@
         </is>
       </c>
       <c r="B16">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>97.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="E16">
-        <v>13.19</v>
+        <v>13.43</v>
       </c>
       <c r="F16">
         <v>3.6</v>
       </c>
       <c r="G16">
-        <v>21.61</v>
+        <v>21.96</v>
       </c>
       <c r="H16">
-        <v>14.55</v>
+        <v>14.78</v>
       </c>
       <c r="I16">
         <v>0.7000000000000001</v>
       </c>
       <c r="J16">
-        <v>15.25</v>
+        <v>15.475</v>
       </c>
     </row>
     <row r="17">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>100</v>
       </c>
       <c r="E17">
-        <v>24.71</v>
+        <v>24.93</v>
       </c>
       <c r="F17">
-        <v>14.4</v>
+        <v>14.45</v>
       </c>
       <c r="G17">
-        <v>25.92</v>
+        <v>26.26</v>
       </c>
       <c r="H17">
-        <v>27.4</v>
+        <v>28.08</v>
       </c>
       <c r="I17">
         <v>6.049999999999999</v>
       </c>
       <c r="J17">
-        <v>33.45</v>
+        <v>34.125</v>
       </c>
     </row>
     <row r="18">
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -972,13 +972,13 @@
         <v>9.699999999999999</v>
       </c>
       <c r="E18">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="H18">
         <v>0.2</v>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         <v>23.8</v>
       </c>
       <c r="E20">
-        <v>3.88</v>
+        <v>3.85</v>
       </c>
       <c r="F20">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G20">
         <v>3.1</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I20">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J20">
         <v>5.5</v>
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1074,22 +1074,22 @@
         <v>97.7</v>
       </c>
       <c r="E21">
-        <v>52.31</v>
+        <v>51.83</v>
       </c>
       <c r="F21">
-        <v>57.25</v>
+        <v>56.95</v>
       </c>
       <c r="G21">
-        <v>31.35</v>
+        <v>31.54</v>
       </c>
       <c r="H21">
-        <v>53.17</v>
+        <v>54.12</v>
       </c>
       <c r="I21">
-        <v>26.875</v>
+        <v>25.875</v>
       </c>
       <c r="J21">
-        <v>80.05</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="B22">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C22">
         <v>0.4</v>
@@ -1108,22 +1108,22 @@
         <v>100</v>
       </c>
       <c r="E22">
-        <v>50.45</v>
+        <v>50.83</v>
       </c>
       <c r="F22">
-        <v>49</v>
+        <v>49.2</v>
       </c>
       <c r="G22">
-        <v>28.26</v>
+        <v>28.48</v>
       </c>
       <c r="H22">
-        <v>46.5</v>
+        <v>46.9</v>
       </c>
       <c r="I22">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="J22">
-        <v>74</v>
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1142,22 +1142,22 @@
         <v>99.94</v>
       </c>
       <c r="E23">
-        <v>51.55</v>
+        <v>51.64</v>
       </c>
       <c r="F23">
         <v>53.47</v>
       </c>
       <c r="G23">
-        <v>27.89</v>
+        <v>27.98</v>
       </c>
       <c r="H23">
-        <v>48.52</v>
+        <v>48.79</v>
       </c>
       <c r="I23">
         <v>26.86</v>
       </c>
       <c r="J23">
-        <v>75.38</v>
+        <v>75.65000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1247,34 +1247,34 @@
         </is>
       </c>
       <c r="B2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2">
-        <v>0.425</v>
+        <v>0.607</v>
       </c>
       <c r="E2">
-        <v>1.244</v>
+        <v>1.421</v>
       </c>
       <c r="F2">
-        <v>0.819</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="G2">
-        <v>1.657</v>
+        <v>2.288</v>
       </c>
       <c r="H2">
-        <v>0.103</v>
+        <v>0.025</v>
       </c>
       <c r="I2">
-        <v>53.321</v>
+        <v>69.10299999999999</v>
       </c>
       <c r="J2">
-        <v>-0.089</v>
+        <v>0.078</v>
       </c>
       <c r="K2">
-        <v>0.9399999999999999</v>
+        <v>1.137</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -1294,34 +1294,34 @@
         </is>
       </c>
       <c r="B3">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C3">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D3">
-        <v>0.18</v>
+        <v>0.243</v>
       </c>
       <c r="E3">
-        <v>1.24</v>
+        <v>1.412</v>
       </c>
       <c r="F3">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="G3">
-        <v>0.8179999999999999</v>
+        <v>0.962</v>
       </c>
       <c r="H3">
-        <v>0.415</v>
+        <v>0.337</v>
       </c>
       <c r="I3">
-        <v>150.689</v>
+        <v>191.109</v>
       </c>
       <c r="J3">
         <v>-0.255</v>
       </c>
       <c r="K3">
-        <v>0.615</v>
+        <v>0.74</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -1341,34 +1341,34 @@
         </is>
       </c>
       <c r="B4">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C4">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D4">
-        <v>0.223</v>
+        <v>0.392</v>
       </c>
       <c r="E4">
-        <v>1.253</v>
+        <v>1.452</v>
       </c>
       <c r="F4">
-        <v>1.029</v>
+        <v>1.061</v>
       </c>
       <c r="G4">
-        <v>1.074</v>
+        <v>1.687</v>
       </c>
       <c r="H4">
-        <v>0.285</v>
+        <v>0.093</v>
       </c>
       <c r="I4">
-        <v>173.795</v>
+        <v>235.698</v>
       </c>
       <c r="J4">
-        <v>-0.187</v>
+        <v>-0.066</v>
       </c>
       <c r="K4">
-        <v>0.634</v>
+        <v>0.849</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -1388,34 +1388,34 @@
         </is>
       </c>
       <c r="B5">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C5">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>0.458</v>
+        <v>0.57</v>
       </c>
       <c r="E5">
-        <v>1.251</v>
+        <v>1.423</v>
       </c>
       <c r="F5">
-        <v>0.793</v>
+        <v>0.854</v>
       </c>
       <c r="G5">
-        <v>1.415</v>
+        <v>1.751</v>
       </c>
       <c r="H5">
-        <v>0.163</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I5">
-        <v>47.55</v>
+        <v>60.423</v>
       </c>
       <c r="J5">
-        <v>-0.193</v>
+        <v>-0.081</v>
       </c>
       <c r="K5">
-        <v>1.108</v>
+        <v>1.22</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -1435,34 +1435,34 @@
         </is>
       </c>
       <c r="B6">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C6">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D6">
-        <v>0.133</v>
+        <v>0.264</v>
       </c>
       <c r="E6">
-        <v>1.247</v>
+        <v>1.453</v>
       </c>
       <c r="F6">
-        <v>1.114</v>
+        <v>1.189</v>
       </c>
       <c r="G6">
-        <v>0.663</v>
+        <v>1.104</v>
       </c>
       <c r="H6">
-        <v>0.508</v>
+        <v>0.27</v>
       </c>
       <c r="I6">
-        <v>286.56</v>
+        <v>319.582</v>
       </c>
       <c r="J6">
-        <v>-0.261</v>
+        <v>-0.207</v>
       </c>
       <c r="K6">
-        <v>0.527</v>
+        <v>0.735</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -1482,34 +1482,34 @@
         </is>
       </c>
       <c r="B7">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C7">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D7">
-        <v>0.178</v>
+        <v>0.317</v>
       </c>
       <c r="E7">
-        <v>1.245</v>
+        <v>1.44</v>
       </c>
       <c r="F7">
-        <v>1.067</v>
+        <v>1.124</v>
       </c>
       <c r="G7">
-        <v>0.86</v>
+        <v>1.325</v>
       </c>
       <c r="H7">
-        <v>0.391</v>
+        <v>0.187</v>
       </c>
       <c r="I7">
-        <v>192.197</v>
+        <v>243.955</v>
       </c>
       <c r="J7">
-        <v>-0.23</v>
+        <v>-0.154</v>
       </c>
       <c r="K7">
-        <v>0.586</v>
+        <v>0.787</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -1529,34 +1529,34 @@
         </is>
       </c>
       <c r="B8">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D8">
-        <v>0.198</v>
+        <v>0.301</v>
       </c>
       <c r="E8">
-        <v>1.257</v>
+        <v>1.445</v>
       </c>
       <c r="F8">
-        <v>1.059</v>
+        <v>1.144</v>
       </c>
       <c r="G8">
-        <v>0.973</v>
+        <v>1.263</v>
       </c>
       <c r="H8">
-        <v>0.331</v>
+        <v>0.207</v>
       </c>
       <c r="I8">
-        <v>223.945</v>
+        <v>275.203</v>
       </c>
       <c r="J8">
-        <v>-0.203</v>
+        <v>-0.168</v>
       </c>
       <c r="K8">
-        <v>0.598</v>
+        <v>0.769</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1576,34 +1576,34 @@
         </is>
       </c>
       <c r="B9">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C9">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D9">
-        <v>-0.228</v>
+        <v>-0.049</v>
       </c>
       <c r="E9">
-        <v>1.138</v>
+        <v>1.337</v>
       </c>
       <c r="F9">
-        <v>1.366</v>
+        <v>1.386</v>
       </c>
       <c r="G9">
-        <v>-1.063</v>
+        <v>-0.206</v>
       </c>
       <c r="H9">
-        <v>0.289</v>
+        <v>0.837</v>
       </c>
       <c r="I9">
-        <v>150.564</v>
+        <v>207.32</v>
       </c>
       <c r="J9">
-        <v>-0.651</v>
+        <v>-0.515</v>
       </c>
       <c r="K9">
-        <v>0.195</v>
+        <v>0.418</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1623,34 +1623,34 @@
         </is>
       </c>
       <c r="B10">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>0.374</v>
+        <v>0.581</v>
       </c>
       <c r="E10">
-        <v>1.211</v>
+        <v>1.376</v>
       </c>
       <c r="F10">
-        <v>0.837</v>
+        <v>0.796</v>
       </c>
       <c r="G10">
-        <v>0.804</v>
+        <v>1.308</v>
       </c>
       <c r="H10">
-        <v>0.435</v>
+        <v>0.208</v>
       </c>
       <c r="I10">
-        <v>14.369</v>
+        <v>16.767</v>
       </c>
       <c r="J10">
-        <v>-0.621</v>
+        <v>-0.357</v>
       </c>
       <c r="K10">
-        <v>1.369</v>
+        <v>1.518</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1670,34 +1670,34 @@
         </is>
       </c>
       <c r="B11">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D11">
-        <v>0.295</v>
+        <v>0.529</v>
       </c>
       <c r="E11">
-        <v>1.287</v>
+        <v>1.513</v>
       </c>
       <c r="F11">
-        <v>0.992</v>
+        <v>0.984</v>
       </c>
       <c r="G11">
-        <v>1.486</v>
+        <v>2.344</v>
       </c>
       <c r="H11">
-        <v>0.139</v>
+        <v>0.02</v>
       </c>
       <c r="I11">
-        <v>234.422</v>
+        <v>296.367</v>
       </c>
       <c r="J11">
-        <v>-0.096</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="K11">
-        <v>0.6860000000000001</v>
+        <v>0.974</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1765,16 +1765,16 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>118.4011847082842</v>
+        <v>154.4598779729278</v>
       </c>
       <c r="D2">
-        <v>39.46706156942805</v>
+        <v>51.48662599097594</v>
       </c>
       <c r="E2">
-        <v>14.01321851643154</v>
+        <v>10.9615182896583</v>
       </c>
       <c r="F2">
-        <v>1.364254211974835e-08</v>
+        <v>7.186355722274816e-07</v>
       </c>
     </row>
     <row r="3">
@@ -1787,16 +1787,16 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>4.204201248483636</v>
+        <v>9.759004555692567</v>
       </c>
       <c r="D3">
-        <v>1.051050312120909</v>
+        <v>2.439751138923142</v>
       </c>
       <c r="E3">
-        <v>0.3290826750367163</v>
+        <v>0.4721941557990477</v>
       </c>
       <c r="F3">
-        <v>0.8583529801424807</v>
+        <v>0.7561471833188502</v>
       </c>
     </row>
     <row r="4">
@@ -1809,16 +1809,16 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>310.2901090562785</v>
+        <v>413.7763613511093</v>
       </c>
       <c r="D4">
-        <v>16.33105837138308</v>
+        <v>21.77770322900575</v>
       </c>
       <c r="E4">
-        <v>7.043194419655037</v>
+        <v>5.325621312230179</v>
       </c>
       <c r="F4">
-        <v>1.867827595169419e-15</v>
+        <v>3.772747684233216e-11</v>
       </c>
     </row>
   </sheetData>
@@ -1888,22 +1888,22 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.007</v>
+        <v>0.018</v>
       </c>
       <c r="C2">
-        <v>0.116</v>
+        <v>0.325</v>
       </c>
       <c r="D2">
-        <v>0.908</v>
+        <v>0.745</v>
       </c>
       <c r="E2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F2">
-        <v>-0.104</v>
+        <v>-0.091</v>
       </c>
       <c r="G2">
-        <v>0.117</v>
+        <v>0.127</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -1926,19 +1926,19 @@
         <v>-0.047</v>
       </c>
       <c r="C3">
-        <v>-0.832</v>
+        <v>-0.845</v>
       </c>
       <c r="D3">
-        <v>0.406</v>
+        <v>0.398</v>
       </c>
       <c r="E3">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="F3">
-        <v>-0.157</v>
+        <v>-0.156</v>
       </c>
       <c r="G3">
-        <v>0.064</v>
+        <v>0.063</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1958,22 +1958,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.013</v>
+        <v>0.006</v>
       </c>
       <c r="C4">
-        <v>0.224</v>
+        <v>0.113</v>
       </c>
       <c r="D4">
-        <v>0.823</v>
+        <v>0.91</v>
       </c>
       <c r="E4">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="F4">
-        <v>-0.098</v>
+        <v>-0.103</v>
       </c>
       <c r="G4">
-        <v>0.124</v>
+        <v>0.116</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1993,22 +1993,22 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.005</v>
+        <v>-0.013</v>
       </c>
       <c r="C5">
-        <v>-0.083</v>
+        <v>-0.224</v>
       </c>
       <c r="D5">
-        <v>0.9340000000000001</v>
+        <v>0.823</v>
       </c>
       <c r="E5">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="F5">
-        <v>-0.116</v>
+        <v>-0.122</v>
       </c>
       <c r="G5">
-        <v>0.106</v>
+        <v>0.097</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2028,22 +2028,22 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.06900000000000001</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="C6">
-        <v>1.209</v>
+        <v>1.569</v>
       </c>
       <c r="D6">
-        <v>0.228</v>
+        <v>0.118</v>
       </c>
       <c r="E6">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="F6">
-        <v>-0.043</v>
+        <v>-0.022</v>
       </c>
       <c r="G6">
-        <v>0.178</v>
+        <v>0.195</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="B7">
-        <v>-0.092</v>
+        <v>-0.093</v>
       </c>
       <c r="C7">
-        <v>-1.633</v>
+        <v>-1.668</v>
       </c>
       <c r="D7">
-        <v>0.103</v>
+        <v>0.096</v>
       </c>
       <c r="E7">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="F7">
         <v>-0.201</v>
       </c>
       <c r="G7">
-        <v>0.019</v>
+        <v>0.017</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -2098,22 +2098,22 @@
         </is>
       </c>
       <c r="B8">
-        <v>-0.09</v>
+        <v>-0.078</v>
       </c>
       <c r="C8">
-        <v>-1.588</v>
+        <v>-1.387</v>
       </c>
       <c r="D8">
-        <v>0.113</v>
+        <v>0.167</v>
       </c>
       <c r="E8">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="F8">
-        <v>-0.199</v>
+        <v>-0.186</v>
       </c>
       <c r="G8">
-        <v>0.021</v>
+        <v>0.032</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -2133,22 +2133,22 @@
         </is>
       </c>
       <c r="B9">
-        <v>-0.012</v>
+        <v>-0.039</v>
       </c>
       <c r="C9">
-        <v>-0.21</v>
+        <v>-0.7</v>
       </c>
       <c r="D9">
-        <v>0.834</v>
+        <v>0.484</v>
       </c>
       <c r="E9">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="F9">
-        <v>-0.123</v>
+        <v>-0.148</v>
       </c>
       <c r="G9">
-        <v>0.099</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -2168,22 +2168,22 @@
         </is>
       </c>
       <c r="B10">
-        <v>-0.039</v>
+        <v>-0.046</v>
       </c>
       <c r="C10">
-        <v>-0.6889999999999999</v>
+        <v>-0.821</v>
       </c>
       <c r="D10">
-        <v>0.491</v>
+        <v>0.412</v>
       </c>
       <c r="E10">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="F10">
-        <v>-0.15</v>
+        <v>-0.155</v>
       </c>
       <c r="G10">
-        <v>0.07199999999999999</v>
+        <v>0.064</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.023</v>
+        <v>0.016</v>
       </c>
       <c r="C11">
-        <v>0.392</v>
+        <v>0.276</v>
       </c>
       <c r="D11">
-        <v>0.695</v>
+        <v>0.782</v>
       </c>
       <c r="E11">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="F11">
-        <v>-0.09</v>
+        <v>-0.095</v>
       </c>
       <c r="G11">
-        <v>0.135</v>
+        <v>0.126</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.062</v>
+        <v>0.052</v>
       </c>
       <c r="C12">
-        <v>1.096</v>
+        <v>0.93</v>
       </c>
       <c r="D12">
-        <v>0.274</v>
+        <v>0.353</v>
       </c>
       <c r="E12">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F12">
-        <v>-0.049</v>
+        <v>-0.058</v>
       </c>
       <c r="G12">
-        <v>0.171</v>
+        <v>0.16</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>

--- a/raw_summary_statistics.xlsx
+++ b/raw_summary_statistics.xlsx
@@ -419,22 +419,22 @@
         </is>
       </c>
       <c r="B2">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C2">
-        <v>-2.87</v>
+        <v>-9.210000000000001</v>
       </c>
       <c r="D2">
-        <v>18.93</v>
+        <v>15.55</v>
       </c>
       <c r="E2">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="F2">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G2">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="H2">
         <v>2.34</v>
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.340343958812575</v>
+        <v>2.340215791392652</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -632,13 +632,13 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -666,13 +666,13 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0.43</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -768,13 +768,13 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C13">
         <v>-13.67</v>
@@ -802,19 +802,19 @@
         <v>14747.43</v>
       </c>
       <c r="E13">
-        <v>818.99</v>
+        <v>824.75</v>
       </c>
       <c r="F13">
-        <v>189.05</v>
+        <v>188.52</v>
       </c>
       <c r="G13">
-        <v>2312.54</v>
+        <v>2360.51</v>
       </c>
       <c r="H13">
-        <v>501.69</v>
+        <v>503.29</v>
       </c>
       <c r="I13">
-        <v>27.64283333333334</v>
+        <v>26.04766666666667</v>
       </c>
       <c r="J13">
         <v>529.3333333333333</v>
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="B14">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>98.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E14">
         <v>1.55</v>
@@ -842,7 +842,7 @@
         <v>0.2</v>
       </c>
       <c r="G14">
-        <v>9.1</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="H14">
         <v>0.6</v>
@@ -861,31 +861,31 @@
         </is>
       </c>
       <c r="B15">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>56</v>
+        <v>55.1</v>
       </c>
       <c r="E15">
-        <v>4.16</v>
+        <v>4.03</v>
       </c>
       <c r="F15">
         <v>1.1</v>
       </c>
       <c r="G15">
-        <v>7.88</v>
+        <v>7.75</v>
       </c>
       <c r="H15">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I15">
         <v>0.4</v>
       </c>
       <c r="J15">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="16">
@@ -895,31 +895,31 @@
         </is>
       </c>
       <c r="B16">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>99.5</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E16">
-        <v>13.43</v>
+        <v>13.24</v>
       </c>
       <c r="F16">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="G16">
-        <v>21.96</v>
+        <v>21.49</v>
       </c>
       <c r="H16">
-        <v>14.78</v>
+        <v>14.9</v>
       </c>
       <c r="I16">
         <v>0.7000000000000001</v>
       </c>
       <c r="J16">
-        <v>15.475</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="17">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>100</v>
       </c>
       <c r="E17">
-        <v>24.93</v>
+        <v>25.57</v>
       </c>
       <c r="F17">
-        <v>14.45</v>
+        <v>14.8</v>
       </c>
       <c r="G17">
-        <v>26.26</v>
+        <v>26.72</v>
       </c>
       <c r="H17">
-        <v>28.08</v>
+        <v>30.7</v>
       </c>
       <c r="I17">
-        <v>6.049999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="J17">
-        <v>34.125</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="18">
@@ -963,31 +963,31 @@
         </is>
       </c>
       <c r="B18">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.699999999999999</v>
+        <v>12.4</v>
       </c>
       <c r="E18">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.71</v>
+        <v>0.82</v>
       </c>
       <c r="H18">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="B19">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="E19">
         <v>0.02</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1031,31 +1031,31 @@
         </is>
       </c>
       <c r="B20">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>23.8</v>
+        <v>33.6</v>
       </c>
       <c r="E20">
-        <v>3.85</v>
+        <v>4.11</v>
       </c>
       <c r="F20">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="G20">
-        <v>3.1</v>
+        <v>3.44</v>
       </c>
       <c r="H20">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I20">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J20">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="21">
@@ -1065,65 +1065,65 @@
         </is>
       </c>
       <c r="B21">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>97.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E21">
-        <v>51.83</v>
+        <v>51.21</v>
       </c>
       <c r="F21">
-        <v>56.95</v>
+        <v>55.8</v>
       </c>
       <c r="G21">
-        <v>31.54</v>
+        <v>31.75</v>
       </c>
       <c r="H21">
-        <v>54.12</v>
+        <v>57.3</v>
       </c>
       <c r="I21">
-        <v>25.875</v>
+        <v>23.2</v>
       </c>
       <c r="J21">
-        <v>80</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>percentstudentsfreereducedlunch</t>
+          <t>percentfreelunchqualified</t>
         </is>
       </c>
       <c r="B22">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C22">
-        <v>0.4</v>
+        <v>0.01</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>50.83</v>
+        <v>0.47</v>
       </c>
       <c r="F22">
-        <v>49.2</v>
+        <v>0.42</v>
       </c>
       <c r="G22">
-        <v>28.48</v>
+        <v>0.28</v>
       </c>
       <c r="H22">
-        <v>46.9</v>
+        <v>0.46</v>
       </c>
       <c r="I22">
-        <v>27.7</v>
+        <v>0.2275368694221153</v>
       </c>
       <c r="J22">
-        <v>74.59999999999999</v>
+        <v>0.6908896846164441</v>
       </c>
     </row>
     <row r="23">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1142,22 +1142,22 @@
         <v>99.94</v>
       </c>
       <c r="E23">
-        <v>51.64</v>
+        <v>51.39</v>
       </c>
       <c r="F23">
-        <v>53.47</v>
+        <v>53.22</v>
       </c>
       <c r="G23">
-        <v>27.98</v>
+        <v>27.91</v>
       </c>
       <c r="H23">
-        <v>48.79</v>
+        <v>48.42</v>
       </c>
       <c r="I23">
-        <v>26.86</v>
+        <v>26.96</v>
       </c>
       <c r="J23">
-        <v>75.65000000000001</v>
+        <v>75.38</v>
       </c>
     </row>
   </sheetData>
@@ -1247,34 +1247,34 @@
         </is>
       </c>
       <c r="B2">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="C2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>0.607</v>
+        <v>0.401</v>
       </c>
       <c r="E2">
-        <v>1.421</v>
+        <v>1.345</v>
       </c>
       <c r="F2">
-        <v>0.8129999999999999</v>
+        <v>0.944</v>
       </c>
       <c r="G2">
-        <v>2.288</v>
+        <v>1.435</v>
       </c>
       <c r="H2">
-        <v>0.025</v>
+        <v>0.156</v>
       </c>
       <c r="I2">
-        <v>69.10299999999999</v>
+        <v>69.881</v>
       </c>
       <c r="J2">
-        <v>0.078</v>
+        <v>-0.156</v>
       </c>
       <c r="K2">
-        <v>1.137</v>
+        <v>0.958</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -1294,34 +1294,34 @@
         </is>
       </c>
       <c r="B3">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="C3">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>0.243</v>
+        <v>0.413</v>
       </c>
       <c r="E3">
-        <v>1.412</v>
+        <v>1.405</v>
       </c>
       <c r="F3">
-        <v>1.17</v>
+        <v>0.991</v>
       </c>
       <c r="G3">
-        <v>0.962</v>
+        <v>1.55</v>
       </c>
       <c r="H3">
-        <v>0.337</v>
+        <v>0.123</v>
       </c>
       <c r="I3">
-        <v>191.109</v>
+        <v>186.08</v>
       </c>
       <c r="J3">
-        <v>-0.255</v>
+        <v>-0.113</v>
       </c>
       <c r="K3">
-        <v>0.74</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -1341,34 +1341,34 @@
         </is>
       </c>
       <c r="B4">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C4">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>0.392</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="E4">
-        <v>1.452</v>
+        <v>1.445</v>
       </c>
       <c r="F4">
-        <v>1.061</v>
+        <v>0.88</v>
       </c>
       <c r="G4">
-        <v>1.687</v>
+        <v>2.308</v>
       </c>
       <c r="H4">
-        <v>0.093</v>
+        <v>0.022</v>
       </c>
       <c r="I4">
-        <v>235.698</v>
+        <v>228.052</v>
       </c>
       <c r="J4">
-        <v>-0.066</v>
+        <v>0.083</v>
       </c>
       <c r="K4">
-        <v>0.849</v>
+        <v>1.049</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -1388,34 +1388,34 @@
         </is>
       </c>
       <c r="B5">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="C5">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>0.57</v>
+        <v>0.435</v>
       </c>
       <c r="E5">
-        <v>1.423</v>
+        <v>1.361</v>
       </c>
       <c r="F5">
-        <v>0.854</v>
+        <v>0.927</v>
       </c>
       <c r="G5">
-        <v>1.751</v>
+        <v>1.336</v>
       </c>
       <c r="H5">
-        <v>0.08500000000000001</v>
+        <v>0.186</v>
       </c>
       <c r="I5">
-        <v>60.423</v>
+        <v>74.14700000000001</v>
       </c>
       <c r="J5">
-        <v>-0.081</v>
+        <v>-0.214</v>
       </c>
       <c r="K5">
-        <v>1.22</v>
+        <v>1.083</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -1435,34 +1435,34 @@
         </is>
       </c>
       <c r="B6">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C6">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D6">
-        <v>0.264</v>
+        <v>0.367</v>
       </c>
       <c r="E6">
-        <v>1.453</v>
+        <v>1.447</v>
       </c>
       <c r="F6">
-        <v>1.189</v>
+        <v>1.08</v>
       </c>
       <c r="G6">
-        <v>1.104</v>
+        <v>1.463</v>
       </c>
       <c r="H6">
-        <v>0.27</v>
+        <v>0.145</v>
       </c>
       <c r="I6">
-        <v>319.582</v>
+        <v>336.817</v>
       </c>
       <c r="J6">
-        <v>-0.207</v>
+        <v>-0.126</v>
       </c>
       <c r="K6">
-        <v>0.735</v>
+        <v>0.86</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -1482,34 +1482,34 @@
         </is>
       </c>
       <c r="B7">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C7">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D7">
-        <v>0.317</v>
+        <v>0.361</v>
       </c>
       <c r="E7">
-        <v>1.44</v>
+        <v>1.407</v>
       </c>
       <c r="F7">
-        <v>1.124</v>
+        <v>1.046</v>
       </c>
       <c r="G7">
-        <v>1.325</v>
+        <v>1.488</v>
       </c>
       <c r="H7">
-        <v>0.187</v>
+        <v>0.138</v>
       </c>
       <c r="I7">
-        <v>243.955</v>
+        <v>278.122</v>
       </c>
       <c r="J7">
-        <v>-0.154</v>
+        <v>-0.117</v>
       </c>
       <c r="K7">
-        <v>0.787</v>
+        <v>0.839</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -1529,34 +1529,34 @@
         </is>
       </c>
       <c r="B8">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C8">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D8">
-        <v>0.301</v>
+        <v>0.466</v>
       </c>
       <c r="E8">
         <v>1.445</v>
       </c>
       <c r="F8">
-        <v>1.144</v>
+        <v>0.979</v>
       </c>
       <c r="G8">
-        <v>1.263</v>
+        <v>1.893</v>
       </c>
       <c r="H8">
-        <v>0.207</v>
+        <v>0.059</v>
       </c>
       <c r="I8">
-        <v>275.203</v>
+        <v>280.658</v>
       </c>
       <c r="J8">
-        <v>-0.168</v>
+        <v>-0.019</v>
       </c>
       <c r="K8">
-        <v>0.769</v>
+        <v>0.952</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1576,34 +1576,34 @@
         </is>
       </c>
       <c r="B9">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C9">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D9">
-        <v>-0.049</v>
+        <v>0.157</v>
       </c>
       <c r="E9">
-        <v>1.337</v>
+        <v>1.338</v>
       </c>
       <c r="F9">
-        <v>1.386</v>
+        <v>1.181</v>
       </c>
       <c r="G9">
-        <v>-0.206</v>
+        <v>0.629</v>
       </c>
       <c r="H9">
-        <v>0.837</v>
+        <v>0.53</v>
       </c>
       <c r="I9">
-        <v>207.32</v>
+        <v>212.202</v>
       </c>
       <c r="J9">
-        <v>-0.515</v>
+        <v>-0.335</v>
       </c>
       <c r="K9">
-        <v>0.418</v>
+        <v>0.649</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1623,34 +1623,34 @@
         </is>
       </c>
       <c r="B10">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="C10">
         <v>15</v>
       </c>
       <c r="D10">
-        <v>0.581</v>
+        <v>0.487</v>
       </c>
       <c r="E10">
-        <v>1.376</v>
+        <v>1.32</v>
       </c>
       <c r="F10">
-        <v>0.796</v>
+        <v>0.833</v>
       </c>
       <c r="G10">
-        <v>1.308</v>
+        <v>1.064</v>
       </c>
       <c r="H10">
-        <v>0.208</v>
+        <v>0.302</v>
       </c>
       <c r="I10">
-        <v>16.767</v>
+        <v>16.701</v>
       </c>
       <c r="J10">
-        <v>-0.357</v>
+        <v>-0.48</v>
       </c>
       <c r="K10">
-        <v>1.518</v>
+        <v>1.454</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1670,34 +1670,34 @@
         </is>
       </c>
       <c r="B11">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D11">
-        <v>0.529</v>
+        <v>0.645</v>
       </c>
       <c r="E11">
-        <v>1.513</v>
+        <v>1.507</v>
       </c>
       <c r="F11">
-        <v>0.984</v>
+        <v>0.862</v>
       </c>
       <c r="G11">
-        <v>2.344</v>
+        <v>2.731</v>
       </c>
       <c r="H11">
-        <v>0.02</v>
+        <v>0.007</v>
       </c>
       <c r="I11">
-        <v>296.367</v>
+        <v>314.803</v>
       </c>
       <c r="J11">
-        <v>0.08500000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="K11">
-        <v>0.974</v>
+        <v>1.11</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1765,16 +1765,16 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>154.4598779729278</v>
+        <v>128.0615123297667</v>
       </c>
       <c r="D2">
-        <v>51.48662599097594</v>
+        <v>42.68717077658889</v>
       </c>
       <c r="E2">
-        <v>10.9615182896583</v>
+        <v>7.855281939139749</v>
       </c>
       <c r="F2">
-        <v>7.186355722274816e-07</v>
+        <v>4.392986621105927e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1784,19 +1784,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>9.759004555692567</v>
+        <v>19.19273953776488</v>
       </c>
       <c r="D3">
-        <v>2.439751138923142</v>
+        <v>6.397579845921626</v>
       </c>
       <c r="E3">
-        <v>0.4721941557990477</v>
+        <v>1.112312803280862</v>
       </c>
       <c r="F3">
-        <v>0.7561471833188502</v>
+        <v>0.3440896756659662</v>
       </c>
     </row>
     <row r="4">
@@ -1809,16 +1809,16 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>413.7763613511093</v>
+        <v>411.755067866272</v>
       </c>
       <c r="D4">
-        <v>21.77770322900575</v>
+        <v>21.67131936138274</v>
       </c>
       <c r="E4">
-        <v>5.325621312230179</v>
+        <v>4.484467639607457</v>
       </c>
       <c r="F4">
-        <v>3.772747684233216e-11</v>
+        <v>4.727438165589188e-09</v>
       </c>
     </row>
   </sheetData>
@@ -1888,22 +1888,22 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="C2">
-        <v>0.325</v>
+        <v>0.253</v>
       </c>
       <c r="D2">
-        <v>0.745</v>
+        <v>0.801</v>
       </c>
       <c r="E2">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="F2">
-        <v>-0.091</v>
+        <v>-0.092</v>
       </c>
       <c r="G2">
-        <v>0.127</v>
+        <v>0.119</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.047</v>
+        <v>-0.04</v>
       </c>
       <c r="C3">
-        <v>-0.845</v>
+        <v>-0.735</v>
       </c>
       <c r="D3">
-        <v>0.398</v>
+        <v>0.463</v>
       </c>
       <c r="E3">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="F3">
-        <v>-0.156</v>
+        <v>-0.145</v>
       </c>
       <c r="G3">
-        <v>0.063</v>
+        <v>0.066</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1958,22 +1958,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.006</v>
+        <v>0.018</v>
       </c>
       <c r="C4">
-        <v>0.113</v>
+        <v>0.336</v>
       </c>
       <c r="D4">
-        <v>0.91</v>
+        <v>0.737</v>
       </c>
       <c r="E4">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="F4">
-        <v>-0.103</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="G4">
-        <v>0.116</v>
+        <v>0.124</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1993,22 +1993,22 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.013</v>
+        <v>-0.007</v>
       </c>
       <c r="C5">
-        <v>-0.224</v>
+        <v>-0.138</v>
       </c>
       <c r="D5">
-        <v>0.823</v>
+        <v>0.89</v>
       </c>
       <c r="E5">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="F5">
-        <v>-0.122</v>
+        <v>-0.113</v>
       </c>
       <c r="G5">
-        <v>0.097</v>
+        <v>0.098</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2028,22 +2028,22 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.08799999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
-        <v>1.569</v>
+        <v>1.85</v>
       </c>
       <c r="D6">
-        <v>0.118</v>
+        <v>0.065</v>
       </c>
       <c r="E6">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="F6">
-        <v>-0.022</v>
+        <v>-0.006</v>
       </c>
       <c r="G6">
-        <v>0.195</v>
+        <v>0.203</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="B7">
-        <v>-0.093</v>
+        <v>-0.035</v>
       </c>
       <c r="C7">
-        <v>-1.668</v>
+        <v>-0.649</v>
       </c>
       <c r="D7">
-        <v>0.096</v>
+        <v>0.517</v>
       </c>
       <c r="E7">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="F7">
-        <v>-0.201</v>
+        <v>-0.141</v>
       </c>
       <c r="G7">
-        <v>0.017</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -2098,22 +2098,22 @@
         </is>
       </c>
       <c r="B8">
-        <v>-0.078</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="C8">
-        <v>-1.387</v>
+        <v>-1.284</v>
       </c>
       <c r="D8">
-        <v>0.167</v>
+        <v>0.2</v>
       </c>
       <c r="E8">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="F8">
-        <v>-0.186</v>
+        <v>-0.174</v>
       </c>
       <c r="G8">
-        <v>0.032</v>
+        <v>0.037</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -2133,22 +2133,22 @@
         </is>
       </c>
       <c r="B9">
-        <v>-0.039</v>
+        <v>-0.019</v>
       </c>
       <c r="C9">
-        <v>-0.7</v>
+        <v>-0.343</v>
       </c>
       <c r="D9">
-        <v>0.484</v>
+        <v>0.732</v>
       </c>
       <c r="E9">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="F9">
-        <v>-0.148</v>
+        <v>-0.124</v>
       </c>
       <c r="G9">
-        <v>0.07099999999999999</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -2168,22 +2168,22 @@
         </is>
       </c>
       <c r="B10">
-        <v>-0.046</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="C10">
-        <v>-0.821</v>
+        <v>-1.279</v>
       </c>
       <c r="D10">
-        <v>0.412</v>
+        <v>0.202</v>
       </c>
       <c r="E10">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="F10">
-        <v>-0.155</v>
+        <v>-0.174</v>
       </c>
       <c r="G10">
-        <v>0.064</v>
+        <v>0.037</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -2199,26 +2199,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>percentstudentsfreereducedlunch</t>
+          <t>percentfreelunchqualified</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.016</v>
+        <v>0.001</v>
       </c>
       <c r="C11">
-        <v>0.276</v>
+        <v>0.017</v>
       </c>
       <c r="D11">
-        <v>0.782</v>
+        <v>0.987</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F11">
-        <v>-0.095</v>
+        <v>-0.111</v>
       </c>
       <c r="G11">
-        <v>0.126</v>
+        <v>0.113</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.052</v>
+        <v>0.03</v>
       </c>
       <c r="C12">
-        <v>0.93</v>
+        <v>0.552</v>
       </c>
       <c r="D12">
-        <v>0.353</v>
+        <v>0.581</v>
       </c>
       <c r="E12">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="F12">
-        <v>-0.058</v>
+        <v>-0.076</v>
       </c>
       <c r="G12">
-        <v>0.16</v>
+        <v>0.135</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>

--- a/raw_summary_statistics.xlsx
+++ b/raw_summary_statistics.xlsx
@@ -419,31 +419,31 @@
         </is>
       </c>
       <c r="B2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C2">
-        <v>-9.210000000000001</v>
+        <v>-6.84</v>
       </c>
       <c r="D2">
-        <v>15.55</v>
+        <v>7.89</v>
       </c>
       <c r="E2">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="F2">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="G2">
-        <v>2.4</v>
+        <v>1.96</v>
       </c>
       <c r="H2">
-        <v>2.34</v>
+        <v>2.27</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.340215791392652</v>
+        <v>2.270284413141556</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -666,13 +666,13 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="H10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -768,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C13">
         <v>-13.67</v>
@@ -802,19 +802,19 @@
         <v>14747.43</v>
       </c>
       <c r="E13">
-        <v>824.75</v>
+        <v>826.27</v>
       </c>
       <c r="F13">
-        <v>188.52</v>
+        <v>188.64</v>
       </c>
       <c r="G13">
-        <v>2360.51</v>
+        <v>2375.13</v>
       </c>
       <c r="H13">
-        <v>503.29</v>
+        <v>503.6</v>
       </c>
       <c r="I13">
-        <v>26.04766666666667</v>
+        <v>25.73816666666667</v>
       </c>
       <c r="J13">
         <v>529.3333333333333</v>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -836,13 +836,13 @@
         <v>97.90000000000001</v>
       </c>
       <c r="E14">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="F14">
         <v>0.2</v>
       </c>
       <c r="G14">
-        <v>8.859999999999999</v>
+        <v>8.93</v>
       </c>
       <c r="H14">
         <v>0.6</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>55.1</v>
       </c>
       <c r="E15">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="F15">
         <v>1.1</v>
       </c>
       <c r="G15">
-        <v>7.75</v>
+        <v>7.78</v>
       </c>
       <c r="H15">
         <v>3.2</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -904,22 +904,22 @@
         <v>97.90000000000001</v>
       </c>
       <c r="E16">
-        <v>13.24</v>
+        <v>13.34</v>
       </c>
       <c r="F16">
         <v>3.5</v>
       </c>
       <c r="G16">
-        <v>21.49</v>
+        <v>21.61</v>
       </c>
       <c r="H16">
-        <v>14.9</v>
+        <v>14.95</v>
       </c>
       <c r="I16">
         <v>0.7000000000000001</v>
       </c>
       <c r="J16">
-        <v>15.6</v>
+        <v>15.65</v>
       </c>
     </row>
     <row r="17">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>100</v>
       </c>
       <c r="E17">
-        <v>25.57</v>
+        <v>25.46</v>
       </c>
       <c r="F17">
-        <v>14.8</v>
+        <v>14.65</v>
       </c>
       <c r="G17">
-        <v>26.72</v>
+        <v>26.58</v>
       </c>
       <c r="H17">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="I17">
         <v>6.5</v>
       </c>
       <c r="J17">
-        <v>37.2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -972,13 +972,13 @@
         <v>12.4</v>
       </c>
       <c r="E18">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="H18">
         <v>0.3</v>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         <v>33.6</v>
       </c>
       <c r="E20">
-        <v>4.11</v>
+        <v>4.12</v>
       </c>
       <c r="F20">
         <v>3.5</v>
       </c>
       <c r="G20">
-        <v>3.44</v>
+        <v>3.46</v>
       </c>
       <c r="H20">
-        <v>4.2</v>
+        <v>4.28</v>
       </c>
       <c r="I20">
         <v>1.5</v>
       </c>
       <c r="J20">
-        <v>5.7</v>
+        <v>5.775</v>
       </c>
     </row>
     <row r="21">
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1074,22 +1074,22 @@
         <v>98.90000000000001</v>
       </c>
       <c r="E21">
-        <v>51.21</v>
+        <v>51.19</v>
       </c>
       <c r="F21">
-        <v>55.8</v>
+        <v>55</v>
       </c>
       <c r="G21">
-        <v>31.75</v>
+        <v>31.77</v>
       </c>
       <c r="H21">
-        <v>57.3</v>
+        <v>57.45</v>
       </c>
       <c r="I21">
-        <v>23.2</v>
+        <v>23.15</v>
       </c>
       <c r="J21">
-        <v>80.5</v>
+        <v>80.60000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="B22">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C22">
         <v>0.01</v>
@@ -1120,10 +1120,10 @@
         <v>0.46</v>
       </c>
       <c r="I22">
-        <v>0.2275368694221153</v>
+        <v>0.2271662763466042</v>
       </c>
       <c r="J22">
-        <v>0.6908896846164441</v>
+        <v>0.6909975669099757</v>
       </c>
     </row>
     <row r="23">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1142,19 +1142,19 @@
         <v>99.94</v>
       </c>
       <c r="E23">
-        <v>51.39</v>
+        <v>51.31</v>
       </c>
       <c r="F23">
-        <v>53.22</v>
+        <v>52.9</v>
       </c>
       <c r="G23">
-        <v>27.91</v>
+        <v>27.83</v>
       </c>
       <c r="H23">
-        <v>48.42</v>
+        <v>48.49</v>
       </c>
       <c r="I23">
-        <v>26.96</v>
+        <v>26.89</v>
       </c>
       <c r="J23">
         <v>75.38</v>
@@ -1247,34 +1247,34 @@
         </is>
       </c>
       <c r="B2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C2">
         <v>40</v>
       </c>
       <c r="D2">
-        <v>0.401</v>
+        <v>0.28</v>
       </c>
       <c r="E2">
-        <v>1.345</v>
+        <v>1.224</v>
       </c>
       <c r="F2">
         <v>0.944</v>
       </c>
       <c r="G2">
-        <v>1.435</v>
+        <v>1.05</v>
       </c>
       <c r="H2">
-        <v>0.156</v>
+        <v>0.298</v>
       </c>
       <c r="I2">
-        <v>69.881</v>
+        <v>58.629</v>
       </c>
       <c r="J2">
-        <v>-0.156</v>
+        <v>-0.254</v>
       </c>
       <c r="K2">
-        <v>0.958</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -1294,34 +1294,34 @@
         </is>
       </c>
       <c r="B3">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C3">
         <v>89</v>
       </c>
       <c r="D3">
-        <v>0.413</v>
+        <v>0.271</v>
       </c>
       <c r="E3">
-        <v>1.405</v>
+        <v>1.262</v>
       </c>
       <c r="F3">
         <v>0.991</v>
       </c>
       <c r="G3">
-        <v>1.55</v>
+        <v>1.091</v>
       </c>
       <c r="H3">
-        <v>0.123</v>
+        <v>0.277</v>
       </c>
       <c r="I3">
-        <v>186.08</v>
+        <v>146.578</v>
       </c>
       <c r="J3">
-        <v>-0.113</v>
+        <v>-0.219</v>
       </c>
       <c r="K3">
-        <v>0.9399999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -1341,34 +1341,34 @@
         </is>
       </c>
       <c r="B4">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C4">
         <v>90</v>
       </c>
       <c r="D4">
-        <v>0.5659999999999999</v>
+        <v>0.423</v>
       </c>
       <c r="E4">
-        <v>1.445</v>
+        <v>1.303</v>
       </c>
       <c r="F4">
         <v>0.88</v>
       </c>
       <c r="G4">
-        <v>2.308</v>
+        <v>1.884</v>
       </c>
       <c r="H4">
-        <v>0.022</v>
+        <v>0.061</v>
       </c>
       <c r="I4">
-        <v>228.052</v>
+        <v>178.01</v>
       </c>
       <c r="J4">
-        <v>0.083</v>
+        <v>-0.02</v>
       </c>
       <c r="K4">
-        <v>1.049</v>
+        <v>0.866</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -1388,34 +1388,34 @@
         </is>
       </c>
       <c r="B5">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C5">
         <v>50</v>
       </c>
       <c r="D5">
-        <v>0.435</v>
+        <v>0.31</v>
       </c>
       <c r="E5">
-        <v>1.361</v>
+        <v>1.237</v>
       </c>
       <c r="F5">
         <v>0.927</v>
       </c>
       <c r="G5">
-        <v>1.336</v>
+        <v>0.988</v>
       </c>
       <c r="H5">
-        <v>0.186</v>
+        <v>0.327</v>
       </c>
       <c r="I5">
-        <v>74.14700000000001</v>
+        <v>64.544</v>
       </c>
       <c r="J5">
-        <v>-0.214</v>
+        <v>-0.317</v>
       </c>
       <c r="K5">
-        <v>1.083</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -1435,34 +1435,34 @@
         </is>
       </c>
       <c r="B6">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C6">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6">
-        <v>0.367</v>
+        <v>0.304</v>
       </c>
       <c r="E6">
-        <v>1.447</v>
+        <v>1.315</v>
       </c>
       <c r="F6">
-        <v>1.08</v>
+        <v>1.011</v>
       </c>
       <c r="G6">
-        <v>1.463</v>
+        <v>1.429</v>
       </c>
       <c r="H6">
-        <v>0.145</v>
+        <v>0.154</v>
       </c>
       <c r="I6">
-        <v>336.817</v>
+        <v>306.756</v>
       </c>
       <c r="J6">
-        <v>-0.126</v>
+        <v>-0.115</v>
       </c>
       <c r="K6">
-        <v>0.86</v>
+        <v>0.723</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -1482,34 +1482,34 @@
         </is>
       </c>
       <c r="B7">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C7">
         <v>104</v>
       </c>
       <c r="D7">
-        <v>0.361</v>
+        <v>0.209</v>
       </c>
       <c r="E7">
-        <v>1.407</v>
+        <v>1.255</v>
       </c>
       <c r="F7">
         <v>1.046</v>
       </c>
       <c r="G7">
-        <v>1.488</v>
+        <v>0.955</v>
       </c>
       <c r="H7">
-        <v>0.138</v>
+        <v>0.341</v>
       </c>
       <c r="I7">
-        <v>278.122</v>
+        <v>220.347</v>
       </c>
       <c r="J7">
-        <v>-0.117</v>
+        <v>-0.223</v>
       </c>
       <c r="K7">
-        <v>0.839</v>
+        <v>0.641</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -1529,34 +1529,34 @@
         </is>
       </c>
       <c r="B8">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C8">
         <v>109</v>
       </c>
       <c r="D8">
-        <v>0.466</v>
+        <v>0.312</v>
       </c>
       <c r="E8">
-        <v>1.445</v>
+        <v>1.291</v>
       </c>
       <c r="F8">
         <v>0.979</v>
       </c>
       <c r="G8">
-        <v>1.893</v>
+        <v>1.404</v>
       </c>
       <c r="H8">
-        <v>0.059</v>
+        <v>0.162</v>
       </c>
       <c r="I8">
-        <v>280.658</v>
+        <v>221.665</v>
       </c>
       <c r="J8">
-        <v>-0.019</v>
+        <v>-0.126</v>
       </c>
       <c r="K8">
-        <v>0.952</v>
+        <v>0.75</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1576,34 +1576,34 @@
         </is>
       </c>
       <c r="B9">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C9">
         <v>87</v>
       </c>
       <c r="D9">
-        <v>0.157</v>
+        <v>0.014</v>
       </c>
       <c r="E9">
-        <v>1.338</v>
+        <v>1.195</v>
       </c>
       <c r="F9">
         <v>1.181</v>
       </c>
       <c r="G9">
-        <v>0.629</v>
+        <v>0.061</v>
       </c>
       <c r="H9">
-        <v>0.53</v>
+        <v>0.952</v>
       </c>
       <c r="I9">
-        <v>212.202</v>
+        <v>165.604</v>
       </c>
       <c r="J9">
-        <v>-0.335</v>
+        <v>-0.44</v>
       </c>
       <c r="K9">
-        <v>0.649</v>
+        <v>0.467</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1623,34 +1623,34 @@
         </is>
       </c>
       <c r="B10">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C10">
         <v>15</v>
       </c>
       <c r="D10">
-        <v>0.487</v>
+        <v>0.375</v>
       </c>
       <c r="E10">
-        <v>1.32</v>
+        <v>1.208</v>
       </c>
       <c r="F10">
         <v>0.833</v>
       </c>
       <c r="G10">
-        <v>1.064</v>
+        <v>0.831</v>
       </c>
       <c r="H10">
-        <v>0.302</v>
+        <v>0.418</v>
       </c>
       <c r="I10">
-        <v>16.701</v>
+        <v>15.778</v>
       </c>
       <c r="J10">
-        <v>-0.48</v>
+        <v>-0.583</v>
       </c>
       <c r="K10">
-        <v>1.454</v>
+        <v>1.333</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1670,34 +1670,34 @@
         </is>
       </c>
       <c r="B11">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C11">
         <v>112</v>
       </c>
       <c r="D11">
-        <v>0.645</v>
+        <v>0.49</v>
       </c>
       <c r="E11">
-        <v>1.507</v>
+        <v>1.352</v>
       </c>
       <c r="F11">
         <v>0.862</v>
       </c>
       <c r="G11">
-        <v>2.731</v>
+        <v>2.329</v>
       </c>
       <c r="H11">
-        <v>0.007</v>
+        <v>0.021</v>
       </c>
       <c r="I11">
-        <v>314.803</v>
+        <v>259.574</v>
       </c>
       <c r="J11">
-        <v>0.18</v>
+        <v>0.076</v>
       </c>
       <c r="K11">
-        <v>1.11</v>
+        <v>0.904</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1765,16 +1765,16 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>128.0615123297667</v>
+        <v>113.43058926293</v>
       </c>
       <c r="D2">
-        <v>42.68717077658889</v>
+        <v>37.81019642097666</v>
       </c>
       <c r="E2">
-        <v>7.855281939139749</v>
+        <v>10.73490303293985</v>
       </c>
       <c r="F2">
-        <v>4.392986621105927e-05</v>
+        <v>9.33618882495955e-07</v>
       </c>
     </row>
     <row r="3">
@@ -1787,16 +1787,16 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>19.19273953776488</v>
+        <v>6.435566734569218</v>
       </c>
       <c r="D3">
-        <v>6.397579845921626</v>
+        <v>2.145188911523073</v>
       </c>
       <c r="E3">
-        <v>1.112312803280862</v>
+        <v>0.5588281554436855</v>
       </c>
       <c r="F3">
-        <v>0.3440896756659662</v>
+        <v>0.6425484902713319</v>
       </c>
     </row>
     <row r="4">
@@ -1809,16 +1809,16 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>411.755067866272</v>
+        <v>351.5793820450792</v>
       </c>
       <c r="D4">
-        <v>21.67131936138274</v>
+        <v>18.50417800237259</v>
       </c>
       <c r="E4">
-        <v>4.484467639607457</v>
+        <v>6.256492055995096</v>
       </c>
       <c r="F4">
-        <v>4.727438165589188e-09</v>
+        <v>1.110040335505228e-13</v>
       </c>
     </row>
   </sheetData>
@@ -1888,22 +1888,22 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.014</v>
+        <v>0.005</v>
       </c>
       <c r="C2">
-        <v>0.253</v>
+        <v>0.1</v>
       </c>
       <c r="D2">
-        <v>0.801</v>
+        <v>0.921</v>
       </c>
       <c r="E2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F2">
-        <v>-0.092</v>
+        <v>-0.101</v>
       </c>
       <c r="G2">
-        <v>0.119</v>
+        <v>0.111</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -1926,19 +1926,19 @@
         <v>-0.04</v>
       </c>
       <c r="C3">
-        <v>-0.735</v>
+        <v>-0.739</v>
       </c>
       <c r="D3">
-        <v>0.463</v>
+        <v>0.461</v>
       </c>
       <c r="E3">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F3">
-        <v>-0.145</v>
+        <v>-0.146</v>
       </c>
       <c r="G3">
-        <v>0.066</v>
+        <v>0.067</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1958,22 +1958,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.018</v>
+        <v>0.012</v>
       </c>
       <c r="C4">
-        <v>0.336</v>
+        <v>0.221</v>
       </c>
       <c r="D4">
-        <v>0.737</v>
+        <v>0.825</v>
       </c>
       <c r="E4">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F4">
-        <v>-0.08799999999999999</v>
+        <v>-0.095</v>
       </c>
       <c r="G4">
-        <v>0.124</v>
+        <v>0.119</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1993,22 +1993,22 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.007</v>
+        <v>0.034</v>
       </c>
       <c r="C5">
-        <v>-0.138</v>
+        <v>0.618</v>
       </c>
       <c r="D5">
-        <v>0.89</v>
+        <v>0.537</v>
       </c>
       <c r="E5">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F5">
-        <v>-0.113</v>
+        <v>-0.073</v>
       </c>
       <c r="G5">
-        <v>0.098</v>
+        <v>0.14</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2028,22 +2028,22 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>0.067</v>
       </c>
       <c r="C6">
-        <v>1.85</v>
+        <v>1.224</v>
       </c>
       <c r="D6">
-        <v>0.065</v>
+        <v>0.222</v>
       </c>
       <c r="E6">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F6">
-        <v>-0.006</v>
+        <v>-0.04</v>
       </c>
       <c r="G6">
-        <v>0.203</v>
+        <v>0.172</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="B7">
-        <v>-0.035</v>
+        <v>-0.032</v>
       </c>
       <c r="C7">
-        <v>-0.649</v>
+        <v>-0.596</v>
       </c>
       <c r="D7">
-        <v>0.517</v>
+        <v>0.552</v>
       </c>
       <c r="E7">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F7">
-        <v>-0.141</v>
+        <v>-0.139</v>
       </c>
       <c r="G7">
-        <v>0.07099999999999999</v>
+        <v>0.074</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -2098,22 +2098,22 @@
         </is>
       </c>
       <c r="B8">
-        <v>-0.06900000000000001</v>
+        <v>-0.08</v>
       </c>
       <c r="C8">
-        <v>-1.284</v>
+        <v>-1.465</v>
       </c>
       <c r="D8">
-        <v>0.2</v>
+        <v>0.144</v>
       </c>
       <c r="E8">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F8">
-        <v>-0.174</v>
+        <v>-0.185</v>
       </c>
       <c r="G8">
-        <v>0.037</v>
+        <v>0.027</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -2133,22 +2133,22 @@
         </is>
       </c>
       <c r="B9">
-        <v>-0.019</v>
+        <v>0.006</v>
       </c>
       <c r="C9">
-        <v>-0.343</v>
+        <v>0.102</v>
       </c>
       <c r="D9">
-        <v>0.732</v>
+        <v>0.919</v>
       </c>
       <c r="E9">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F9">
-        <v>-0.124</v>
+        <v>-0.101</v>
       </c>
       <c r="G9">
-        <v>0.08699999999999999</v>
+        <v>0.112</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -2168,19 +2168,19 @@
         </is>
       </c>
       <c r="B10">
-        <v>-0.06900000000000001</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="C10">
-        <v>-1.279</v>
+        <v>-1.28</v>
       </c>
       <c r="D10">
         <v>0.202</v>
       </c>
       <c r="E10">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F10">
-        <v>-0.174</v>
+        <v>-0.175</v>
       </c>
       <c r="G10">
         <v>0.037</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.001</v>
+        <v>0.016</v>
       </c>
       <c r="C11">
-        <v>0.017</v>
+        <v>0.282</v>
       </c>
       <c r="D11">
-        <v>0.987</v>
+        <v>0.778</v>
       </c>
       <c r="E11">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F11">
-        <v>-0.111</v>
+        <v>-0.097</v>
       </c>
       <c r="G11">
-        <v>0.113</v>
+        <v>0.129</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.03</v>
+        <v>0.062</v>
       </c>
       <c r="C12">
-        <v>0.552</v>
+        <v>1.147</v>
       </c>
       <c r="D12">
-        <v>0.581</v>
+        <v>0.252</v>
       </c>
       <c r="E12">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F12">
-        <v>-0.076</v>
+        <v>-0.044</v>
       </c>
       <c r="G12">
-        <v>0.135</v>
+        <v>0.167</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>

--- a/raw_summary_statistics.xlsx
+++ b/raw_summary_statistics.xlsx
@@ -1,24 +1,228 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline-my.sharepoint.com/personal/53643_icf_com/Documents/Work/work_2022/nscps_district_cases/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_BC7DE02FDEE4BAB7DD6F7B385053AFD214D50C41" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9705230-B86A-F548-A80C-039AF7DE2E43}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_statistics" sheetId="1" r:id="rId1"/>
     <sheet name="dichotomous_stats" sheetId="2" r:id="rId2"/>
     <sheet name="anovas" sheetId="3" r:id="rId3"/>
-    <sheet name="continuous_correlations" sheetId="4" r:id="rId4"/>
+    <sheet name="categorical_counts" sheetId="4" r:id="rId4"/>
+    <sheet name="continuous_correlations" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="64">
+  <si>
+    <t>construct</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>stdev</t>
+  </si>
+  <si>
+    <t>iqr</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>changeinrate</t>
+  </si>
+  <si>
+    <t>vaccination</t>
+  </si>
+  <si>
+    <t>masks</t>
+  </si>
+  <si>
+    <t>physicaldistancing</t>
+  </si>
+  <si>
+    <t>screeningtestingforstudents</t>
+  </si>
+  <si>
+    <t>stayhome</t>
+  </si>
+  <si>
+    <t>contacttracing</t>
+  </si>
+  <si>
+    <t>quarantine</t>
+  </si>
+  <si>
+    <t>cleaning</t>
+  </si>
+  <si>
+    <t>hepafilters</t>
+  </si>
+  <si>
+    <t>hvacsystems</t>
+  </si>
+  <si>
+    <t>cntycaseschange</t>
+  </si>
+  <si>
+    <t>percentamericanindianoralaskanative</t>
+  </si>
+  <si>
+    <t>percentasian</t>
+  </si>
+  <si>
+    <t>percentblackorafricanamerican</t>
+  </si>
+  <si>
+    <t>percenthispaniclatino</t>
+  </si>
+  <si>
+    <t>percentnativehawaiianorotherpacificislander</t>
+  </si>
+  <si>
+    <t>percentnotspecified</t>
+  </si>
+  <si>
+    <t>percenttwoormoreraces</t>
+  </si>
+  <si>
+    <t>percentwhite</t>
+  </si>
+  <si>
+    <t>percentfreereducedlunch</t>
+  </si>
+  <si>
+    <t>rplthemes</t>
+  </si>
+  <si>
+    <t>No policy_n</t>
+  </si>
+  <si>
+    <t>Has policy_n</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>No policy_mean</t>
+  </si>
+  <si>
+    <t>Has policy_mean</t>
+  </si>
+  <si>
+    <t>statistic</t>
+  </si>
+  <si>
+    <t>p.value</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>conf.low</t>
+  </si>
+  <si>
+    <t>conf.high</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>alternative</t>
+  </si>
+  <si>
+    <t>Welch Two Sample t-test</t>
+  </si>
+  <si>
+    <t>two.sided</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>sumsq</t>
+  </si>
+  <si>
+    <t>meansq</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>locale</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Construct</t>
+  </si>
+  <si>
+    <t>Midwest</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Suburb</t>
+  </si>
+  <si>
+    <t>Town</t>
+  </si>
+  <si>
+    <t>predictor</t>
+  </si>
+  <si>
+    <t>Pearson's product-moment correlation</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +270,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -112,7 +324,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -144,9 +356,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,6 +408,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -353,104 +601,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>construct</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>stdev</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>iqr</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>changeinrate</t>
-        </is>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
       </c>
       <c r="B2">
         <v>342</v>
       </c>
       <c r="C2">
-        <v>-6.84</v>
+        <v>-6.25</v>
       </c>
       <c r="D2">
-        <v>7.89</v>
+        <v>7.81</v>
       </c>
       <c r="E2">
-        <v>1.19</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F2">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="G2">
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
       <c r="H2">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.270284413141556</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>vaccination</t>
-        </is>
+        <v>2.1882151029748278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
       </c>
       <c r="B3">
         <v>342</v>
@@ -480,11 +707,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>masks</t>
-        </is>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
       </c>
       <c r="B4">
         <v>342</v>
@@ -514,11 +739,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>physicaldistancing</t>
-        </is>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
       </c>
       <c r="B5">
         <v>342</v>
@@ -548,11 +771,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>screeningtestingforstudents</t>
-        </is>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
       </c>
       <c r="B6">
         <v>342</v>
@@ -582,11 +803,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>stayhome</t>
-        </is>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
       </c>
       <c r="B7">
         <v>342</v>
@@ -616,11 +835,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>contacttracing</t>
-        </is>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
       </c>
       <c r="B8">
         <v>342</v>
@@ -650,11 +867,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>quarantine</t>
-        </is>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
       </c>
       <c r="B9">
         <v>342</v>
@@ -684,11 +899,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>cleaning</t>
-        </is>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
       </c>
       <c r="B10">
         <v>342</v>
@@ -718,11 +931,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>hepafilters</t>
-        </is>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
       </c>
       <c r="B11">
         <v>342</v>
@@ -752,11 +963,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>hvacsystems</t>
-        </is>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
       </c>
       <c r="B12">
         <v>342</v>
@@ -786,11 +995,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>cntycaseschange</t>
-        </is>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
       </c>
       <c r="B13">
         <v>342</v>
@@ -814,17 +1021,15 @@
         <v>503.6</v>
       </c>
       <c r="I13">
-        <v>25.73816666666667</v>
+        <v>25.738166666666672</v>
       </c>
       <c r="J13">
-        <v>529.3333333333333</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>percentamericanindianoralaskanative</t>
-        </is>
+        <v>529.33333333333326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
       </c>
       <c r="B14">
         <v>338</v>
@@ -833,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>97.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="E14">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="F14">
         <v>0.2</v>
       </c>
       <c r="G14">
-        <v>8.93</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="H14">
         <v>0.6</v>
@@ -854,11 +1059,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>percentasian</t>
-        </is>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
       </c>
       <c r="B15">
         <v>338</v>
@@ -867,32 +1070,30 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>4.04</v>
       </c>
       <c r="F15">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G15">
-        <v>7.78</v>
+        <v>7.73</v>
       </c>
       <c r="H15">
-        <v>3.2</v>
+        <v>3.28</v>
       </c>
       <c r="I15">
         <v>0.4</v>
       </c>
       <c r="J15">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>percentblackorafricanamerican</t>
-        </is>
+        <v>3.6749999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
       </c>
       <c r="B16">
         <v>338</v>
@@ -901,32 +1102,30 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>97.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="E16">
-        <v>13.34</v>
+        <v>13.31</v>
       </c>
       <c r="F16">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G16">
-        <v>21.61</v>
+        <v>21.69</v>
       </c>
       <c r="H16">
-        <v>14.95</v>
+        <v>14.92</v>
       </c>
       <c r="I16">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="J16">
-        <v>15.65</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>percenthispaniclatino</t>
-        </is>
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
       </c>
       <c r="B17">
         <v>338</v>
@@ -938,29 +1137,27 @@
         <v>100</v>
       </c>
       <c r="E17">
-        <v>25.46</v>
+        <v>24.97</v>
       </c>
       <c r="F17">
-        <v>14.65</v>
+        <v>14.05</v>
       </c>
       <c r="G17">
-        <v>26.58</v>
+        <v>26.59</v>
       </c>
       <c r="H17">
-        <v>30.5</v>
+        <v>29.9</v>
       </c>
       <c r="I17">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="J17">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>percentnativehawaiianorotherpacificislander</t>
-        </is>
+        <v>35.400000000000013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
       </c>
       <c r="B18">
         <v>338</v>
@@ -969,32 +1166,30 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>12.4</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E18">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.83</v>
+        <v>0.7</v>
       </c>
       <c r="H18">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>percentnotspecified</t>
-        </is>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
       </c>
       <c r="B19">
         <v>338</v>
@@ -1003,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="E19">
         <v>0.02</v>
@@ -1012,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1024,11 +1219,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>percenttwoormoreraces</t>
-        </is>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
       </c>
       <c r="B20">
         <v>338</v>
@@ -1037,32 +1230,30 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>33.6</v>
+        <v>23.8</v>
       </c>
       <c r="E20">
-        <v>4.12</v>
+        <v>3.86</v>
       </c>
       <c r="F20">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="G20">
-        <v>3.46</v>
+        <v>3.09</v>
       </c>
       <c r="H20">
-        <v>4.28</v>
+        <v>4</v>
       </c>
       <c r="I20">
         <v>1.5</v>
       </c>
       <c r="J20">
-        <v>5.775</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>percentwhite</t>
-        </is>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
       </c>
       <c r="B21">
         <v>338</v>
@@ -1071,66 +1262,62 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E21">
-        <v>51.19</v>
+        <v>51.92</v>
       </c>
       <c r="F21">
-        <v>55</v>
+        <v>56.95</v>
       </c>
       <c r="G21">
-        <v>31.77</v>
+        <v>32</v>
       </c>
       <c r="H21">
-        <v>57.45</v>
+        <v>56.95</v>
       </c>
       <c r="I21">
-        <v>23.15</v>
+        <v>24.45</v>
       </c>
       <c r="J21">
-        <v>80.60000000000001</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>percentfreelunchqualified</t>
-        </is>
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="C22">
-        <v>0.01</v>
+        <v>0.4</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E22">
-        <v>0.47</v>
+        <v>51.31</v>
       </c>
       <c r="F22">
-        <v>0.42</v>
+        <v>49.4</v>
       </c>
       <c r="G22">
-        <v>0.28</v>
+        <v>28.3</v>
       </c>
       <c r="H22">
-        <v>0.46</v>
+        <v>47</v>
       </c>
       <c r="I22">
-        <v>0.2271662763466042</v>
+        <v>28.5</v>
       </c>
       <c r="J22">
-        <v>0.6909975669099757</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>rplthemes</t>
-        </is>
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
       </c>
       <c r="B23">
         <v>342</v>
@@ -1166,85 +1353,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>construct</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>No policy_n</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Has policy_n</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>estimate</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>No policy_mean</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Has policy_mean</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>statistic</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>p.value</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>parameter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>conf.low</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>conf.high</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>alternative</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>vaccination</t>
-        </is>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
       <c r="B2">
         <v>302</v>
@@ -1253,45 +1412,39 @@
         <v>40</v>
       </c>
       <c r="D2">
-        <v>0.28</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="E2">
-        <v>1.224</v>
+        <v>1.1930000000000001</v>
       </c>
       <c r="F2">
-        <v>0.944</v>
+        <v>0.91</v>
       </c>
       <c r="G2">
-        <v>1.05</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H2">
-        <v>0.298</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="I2">
-        <v>58.629</v>
+        <v>58.215000000000003</v>
       </c>
       <c r="J2">
-        <v>-0.254</v>
+        <v>-0.23200000000000001</v>
       </c>
       <c r="K2">
-        <v>0.8139999999999999</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Welch Two Sample t-test</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>two.sided</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>masks</t>
-        </is>
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
       <c r="B3">
         <v>253</v>
@@ -1300,45 +1453,39 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>0.271</v>
+        <v>0.22</v>
       </c>
       <c r="E3">
-        <v>1.262</v>
+        <v>1.2170000000000001</v>
       </c>
       <c r="F3">
-        <v>0.991</v>
+        <v>0.997</v>
       </c>
       <c r="G3">
-        <v>1.091</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="H3">
-        <v>0.277</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="I3">
-        <v>146.578</v>
+        <v>145.749</v>
       </c>
       <c r="J3">
-        <v>-0.219</v>
+        <v>-0.251</v>
       </c>
       <c r="K3">
-        <v>0.76</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Welch Two Sample t-test</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>two.sided</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>physicaldistancing</t>
-        </is>
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
       <c r="B4">
         <v>252</v>
@@ -1347,45 +1494,39 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>0.423</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="E4">
-        <v>1.303</v>
+        <v>1.2609999999999999</v>
       </c>
       <c r="F4">
-        <v>0.88</v>
+        <v>0.878</v>
       </c>
       <c r="G4">
-        <v>1.884</v>
+        <v>1.76</v>
       </c>
       <c r="H4">
-        <v>0.061</v>
+        <v>0.08</v>
       </c>
       <c r="I4">
-        <v>178.01</v>
+        <v>173.87299999999999</v>
       </c>
       <c r="J4">
-        <v>-0.02</v>
+        <v>-4.7E-2</v>
       </c>
       <c r="K4">
-        <v>0.866</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Welch Two Sample t-test</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>two.sided</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>screeningtestingforstudents</t>
-        </is>
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
       <c r="B5">
         <v>292</v>
@@ -1394,45 +1535,39 @@
         <v>50</v>
       </c>
       <c r="D5">
-        <v>0.31</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="E5">
-        <v>1.237</v>
+        <v>1.194</v>
       </c>
       <c r="F5">
-        <v>0.927</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="G5">
-        <v>0.988</v>
+        <v>0.753</v>
       </c>
       <c r="H5">
-        <v>0.327</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="I5">
-        <v>64.544</v>
+        <v>62.767000000000003</v>
       </c>
       <c r="J5">
-        <v>-0.317</v>
+        <v>-0.39</v>
       </c>
       <c r="K5">
-        <v>0.9370000000000001</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Welch Two Sample t-test</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>two.sided</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>stayhome</t>
-        </is>
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
       </c>
       <c r="B6">
         <v>203</v>
@@ -1441,45 +1576,39 @@
         <v>139</v>
       </c>
       <c r="D6">
-        <v>0.304</v>
+        <v>0.24</v>
       </c>
       <c r="E6">
-        <v>1.315</v>
+        <v>1.2569999999999999</v>
       </c>
       <c r="F6">
-        <v>1.011</v>
+        <v>1.018</v>
       </c>
       <c r="G6">
-        <v>1.429</v>
+        <v>1.1679999999999999</v>
       </c>
       <c r="H6">
-        <v>0.154</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="I6">
-        <v>306.756</v>
+        <v>301.05399999999997</v>
       </c>
       <c r="J6">
-        <v>-0.115</v>
+        <v>-0.16400000000000001</v>
       </c>
       <c r="K6">
-        <v>0.723</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Welch Two Sample t-test</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>two.sided</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>contacttracing</t>
-        </is>
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
       </c>
       <c r="B7">
         <v>238</v>
@@ -1488,45 +1617,39 @@
         <v>104</v>
       </c>
       <c r="D7">
-        <v>0.209</v>
+        <v>0.184</v>
       </c>
       <c r="E7">
-        <v>1.255</v>
+        <v>1.216</v>
       </c>
       <c r="F7">
-        <v>1.046</v>
+        <v>1.032</v>
       </c>
       <c r="G7">
-        <v>0.955</v>
+        <v>0.873</v>
       </c>
       <c r="H7">
-        <v>0.341</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="I7">
-        <v>220.347</v>
+        <v>217.56800000000001</v>
       </c>
       <c r="J7">
-        <v>-0.223</v>
+        <v>-0.23200000000000001</v>
       </c>
       <c r="K7">
-        <v>0.641</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Welch Two Sample t-test</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>two.sided</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>quarantine</t>
-        </is>
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
       </c>
       <c r="B8">
         <v>233</v>
@@ -1535,45 +1658,39 @@
         <v>109</v>
       </c>
       <c r="D8">
-        <v>0.312</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="E8">
-        <v>1.291</v>
+        <v>1.236</v>
       </c>
       <c r="F8">
-        <v>0.979</v>
+        <v>0.997</v>
       </c>
       <c r="G8">
-        <v>1.404</v>
+        <v>1.105</v>
       </c>
       <c r="H8">
-        <v>0.162</v>
+        <v>0.27</v>
       </c>
       <c r="I8">
-        <v>221.665</v>
+        <v>214.637</v>
       </c>
       <c r="J8">
-        <v>-0.126</v>
+        <v>-0.187</v>
       </c>
       <c r="K8">
-        <v>0.75</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Welch Two Sample t-test</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>two.sided</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>cleaning</t>
-        </is>
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="L8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
       </c>
       <c r="B9">
         <v>255</v>
@@ -1582,45 +1699,39 @@
         <v>87</v>
       </c>
       <c r="D9">
-        <v>0.014</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="E9">
-        <v>1.195</v>
+        <v>1.151</v>
       </c>
       <c r="F9">
-        <v>1.181</v>
+        <v>1.1859999999999999</v>
       </c>
       <c r="G9">
-        <v>0.061</v>
+        <v>-0.157</v>
       </c>
       <c r="H9">
-        <v>0.952</v>
+        <v>0.875</v>
       </c>
       <c r="I9">
-        <v>165.604</v>
+        <v>159.22</v>
       </c>
       <c r="J9">
-        <v>-0.44</v>
+        <v>-0.47899999999999998</v>
       </c>
       <c r="K9">
-        <v>0.467</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Welch Two Sample t-test</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>two.sided</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>hepafilters</t>
-        </is>
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
       </c>
       <c r="B10">
         <v>327</v>
@@ -1632,42 +1743,36 @@
         <v>0.375</v>
       </c>
       <c r="E10">
-        <v>1.208</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="F10">
-        <v>0.833</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="G10">
-        <v>0.831</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="H10">
-        <v>0.418</v>
+        <v>0.4</v>
       </c>
       <c r="I10">
-        <v>15.778</v>
+        <v>15.773999999999999</v>
       </c>
       <c r="J10">
-        <v>-0.583</v>
+        <v>-0.54400000000000004</v>
       </c>
       <c r="K10">
-        <v>1.333</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Welch Two Sample t-test</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>two.sided</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>hvacsystems</t>
-        </is>
+        <v>1.294</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
       </c>
       <c r="B11">
         <v>230</v>
@@ -1676,38 +1781,34 @@
         <v>112</v>
       </c>
       <c r="D11">
-        <v>0.49</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="E11">
-        <v>1.352</v>
+        <v>1.3160000000000001</v>
       </c>
       <c r="F11">
-        <v>0.862</v>
+        <v>0.84</v>
       </c>
       <c r="G11">
-        <v>2.329</v>
+        <v>2.3530000000000002</v>
       </c>
       <c r="H11">
-        <v>0.021</v>
+        <v>1.9E-2</v>
       </c>
       <c r="I11">
-        <v>259.574</v>
+        <v>257.47800000000001</v>
       </c>
       <c r="J11">
-        <v>0.076</v>
+        <v>7.8E-2</v>
       </c>
       <c r="K11">
-        <v>0.904</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Welch Two Sample t-test</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>two.sided</t>
-        </is>
+        <v>0.875</v>
+      </c>
+      <c r="L11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1716,109 +1817,91 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>term</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>df</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>sumsq</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>meansq</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>statistic</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>p.value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>region</t>
-        </is>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>50</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>113.43058926293</v>
+        <v>106.0720467906709</v>
       </c>
       <c r="D2">
-        <v>37.81019642097666</v>
+        <v>35.357348930223637</v>
       </c>
       <c r="E2">
-        <v>10.73490303293985</v>
+        <v>10.94339830321397</v>
       </c>
       <c r="F2">
-        <v>9.33618882495955e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>locale</t>
-        </is>
+        <v>7.0768982244261521E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>51</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>6.435566734569218</v>
+        <v>4.8179913636320384</v>
       </c>
       <c r="D3">
-        <v>2.145188911523073</v>
+        <v>1.6059971212106789</v>
       </c>
       <c r="E3">
-        <v>0.5588281554436855</v>
+        <v>0.45489254797043688</v>
       </c>
       <c r="F3">
-        <v>0.6425484902713319</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>state</t>
-        </is>
+        <v>0.71400834824658044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
       </c>
       <c r="B4">
         <v>19</v>
       </c>
       <c r="C4">
-        <v>351.5793820450792</v>
+        <v>327.48735388524398</v>
       </c>
       <c r="D4">
-        <v>18.50417800237259</v>
+        <v>17.236176520276</v>
       </c>
       <c r="E4">
-        <v>6.256492055995096</v>
+        <v>6.3746852648329622</v>
       </c>
       <c r="F4">
-        <v>1.110040335505228e-13</v>
+        <v>5.4845639141791491E-14</v>
       </c>
     </row>
   </sheetData>
@@ -1827,443 +1910,552 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>55</v>
+      </c>
+      <c r="C2">
+        <v>-2.87</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>0.43</v>
+      </c>
+      <c r="F2">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>94</v>
+      </c>
+      <c r="C3">
+        <v>-2.93</v>
+      </c>
+      <c r="D3">
+        <v>7.67</v>
+      </c>
+      <c r="E3">
+        <v>1.47</v>
+      </c>
+      <c r="F3">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4">
+        <v>120</v>
+      </c>
+      <c r="C4">
+        <v>-6.25</v>
+      </c>
+      <c r="D4">
+        <v>7.5</v>
+      </c>
+      <c r="E4">
+        <v>1.68</v>
+      </c>
+      <c r="F4">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <v>73</v>
+      </c>
+      <c r="C5">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="D5">
+        <v>7.81</v>
+      </c>
+      <c r="E5">
+        <v>0.46</v>
+      </c>
+      <c r="F5">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>83</v>
+      </c>
+      <c r="C6">
+        <v>-2.6</v>
+      </c>
+      <c r="D6">
+        <v>6.74</v>
+      </c>
+      <c r="E6">
+        <v>1.06</v>
+      </c>
+      <c r="F6">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7">
+        <v>92</v>
+      </c>
+      <c r="C7">
+        <v>-6.25</v>
+      </c>
+      <c r="D7">
+        <v>7.5</v>
+      </c>
+      <c r="E7">
+        <v>1.17</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>119</v>
+      </c>
+      <c r="C8">
+        <v>-2.93</v>
+      </c>
+      <c r="D8">
+        <v>7.81</v>
+      </c>
+      <c r="E8">
+        <v>1.3</v>
+      </c>
+      <c r="F8">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>-2.87</v>
+      </c>
+      <c r="D9">
+        <v>5.17</v>
+      </c>
+      <c r="E9">
+        <v>0.97</v>
+      </c>
+      <c r="F9">
+        <v>1.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>predictor</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>estimate</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>statistic</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p.value</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>parameter</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>conf.low</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>conf.high</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>alternative</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>cntycaseschange</t>
-        </is>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
       </c>
       <c r="B2">
-        <v>0.005</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D2">
-        <v>0.921</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="E2">
         <v>340</v>
       </c>
       <c r="F2">
-        <v>-0.101</v>
+        <v>-0.10199999999999999</v>
       </c>
       <c r="G2">
-        <v>0.111</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Pearson's product-moment correlation</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>two.sided</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>percentamericanindianoralaskanative</t>
-        </is>
+        <v>0.11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>-0.04</v>
+        <v>-4.5999999999999999E-2</v>
       </c>
       <c r="C3">
-        <v>-0.739</v>
+        <v>-0.84099999999999997</v>
       </c>
       <c r="D3">
-        <v>0.461</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="E3">
         <v>336</v>
       </c>
       <c r="F3">
-        <v>-0.146</v>
+        <v>-0.152</v>
       </c>
       <c r="G3">
-        <v>0.067</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Pearson's product-moment correlation</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>two.sided</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>percentasian</t>
-        </is>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>0.012</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C4">
-        <v>0.221</v>
+        <v>0.313</v>
       </c>
       <c r="D4">
-        <v>0.825</v>
+        <v>0.754</v>
       </c>
       <c r="E4">
         <v>336</v>
       </c>
       <c r="F4">
-        <v>-0.095</v>
+        <v>-0.09</v>
       </c>
       <c r="G4">
-        <v>0.119</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Pearson's product-moment correlation</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>two.sided</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>percentblackorafricanamerican</t>
-        </is>
+        <v>0.124</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>0.034</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="C5">
-        <v>0.618</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="D5">
-        <v>0.537</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="E5">
         <v>336</v>
       </c>
       <c r="F5">
-        <v>-0.073</v>
+        <v>-6.9000000000000006E-2</v>
       </c>
       <c r="G5">
-        <v>0.14</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Pearson's product-moment correlation</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>two.sided</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>percenthispaniclatino</t>
-        </is>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>0.067</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C6">
-        <v>1.224</v>
+        <v>1.2050000000000001</v>
       </c>
       <c r="D6">
-        <v>0.222</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="E6">
         <v>336</v>
       </c>
       <c r="F6">
-        <v>-0.04</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="G6">
-        <v>0.172</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Pearson's product-moment correlation</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>two.sided</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>percentnativehawaiianorotherpacificislander</t>
-        </is>
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
       </c>
       <c r="B7">
-        <v>-0.032</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="C7">
-        <v>-0.596</v>
+        <v>-0.751</v>
       </c>
       <c r="D7">
-        <v>0.552</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="E7">
         <v>336</v>
       </c>
       <c r="F7">
-        <v>-0.139</v>
+        <v>-0.14699999999999999</v>
       </c>
       <c r="G7">
-        <v>0.074</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Pearson's product-moment correlation</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>two.sided</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>percentnotspecified</t>
-        </is>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>-0.08</v>
+        <v>-4.7E-2</v>
       </c>
       <c r="C8">
-        <v>-1.465</v>
+        <v>-0.86799999999999999</v>
       </c>
       <c r="D8">
-        <v>0.144</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="E8">
         <v>336</v>
       </c>
       <c r="F8">
-        <v>-0.185</v>
+        <v>-0.153</v>
       </c>
       <c r="G8">
-        <v>0.027</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Pearson's product-moment correlation</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>two.sided</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>percenttwoormoreraces</t>
-        </is>
+        <v>0.06</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
       </c>
       <c r="B9">
-        <v>0.006</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="C9">
-        <v>0.102</v>
+        <v>-0.08</v>
       </c>
       <c r="D9">
-        <v>0.919</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="E9">
         <v>336</v>
       </c>
       <c r="F9">
-        <v>-0.101</v>
+        <v>-0.111</v>
       </c>
       <c r="G9">
-        <v>0.112</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Pearson's product-moment correlation</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>two.sided</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>percentwhite</t>
-        </is>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
       </c>
       <c r="B10">
-        <v>-0.07000000000000001</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C10">
-        <v>-1.28</v>
+        <v>-1.2789999999999999</v>
       </c>
       <c r="D10">
-        <v>0.202</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="E10">
         <v>336</v>
       </c>
       <c r="F10">
-        <v>-0.175</v>
+        <v>-0.17499999999999999</v>
       </c>
       <c r="G10">
-        <v>0.037</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Pearson's product-moment correlation</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>two.sided</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>percentfreelunchqualified</t>
-        </is>
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
       </c>
       <c r="B11">
-        <v>0.016</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C11">
-        <v>0.282</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="D11">
-        <v>0.778</v>
+        <v>0.63</v>
       </c>
       <c r="E11">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="F11">
-        <v>-0.097</v>
+        <v>-8.1000000000000003E-2</v>
       </c>
       <c r="G11">
-        <v>0.129</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Pearson's product-moment correlation</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>two.sided</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>rplthemes</t>
-        </is>
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>31</v>
       </c>
       <c r="B12">
-        <v>0.062</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="C12">
-        <v>1.147</v>
+        <v>1.256</v>
       </c>
       <c r="D12">
-        <v>0.252</v>
+        <v>0.21</v>
       </c>
       <c r="E12">
         <v>340</v>
       </c>
       <c r="F12">
-        <v>-0.044</v>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="G12">
-        <v>0.167</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Pearson's product-moment correlation</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>two.sided</t>
-        </is>
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/raw_summary_statistics.xlsx
+++ b/raw_summary_statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline-my.sharepoint.com/personal/53643_icf_com/Documents/Work/work_2022/nscps_district_cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_BC7DE02FDEE4BAB7DD6F7B385053AFD214D50C41" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9705230-B86A-F548-A80C-039AF7DE2E43}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_CBB47464DDB53F815D3DE94BC48BA8942D23BC52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91F37416-E78F-4A47-8B6D-D6ADA301661F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="760" windowWidth="14540" windowHeight="8180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_statistics" sheetId="1" r:id="rId1"/>
@@ -604,7 +604,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -648,31 +650,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>342</v>
+        <v>502</v>
       </c>
       <c r="C2">
         <v>-6.25</v>
       </c>
       <c r="D2">
-        <v>7.81</v>
+        <v>8.75</v>
       </c>
       <c r="E2">
-        <v>1.1599999999999999</v>
+        <v>1.33</v>
       </c>
       <c r="F2">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="G2">
-        <v>1.87</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="H2">
-        <v>2.19</v>
+        <v>2.38</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.1882151029748278</v>
+        <v>2.3756985654202909</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -680,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>342</v>
+        <v>502</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -689,13 +691,13 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -712,7 +714,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>342</v>
+        <v>502</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -721,22 +723,22 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -744,7 +746,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>342</v>
+        <v>502</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -753,22 +755,22 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -776,7 +778,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>342</v>
+        <v>502</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -785,13 +787,13 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -808,7 +810,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>342</v>
+        <v>502</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -817,13 +819,13 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0.41</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -840,7 +842,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>342</v>
+        <v>502</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -849,22 +851,22 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -872,7 +874,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>342</v>
+        <v>502</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -881,22 +883,22 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -904,7 +906,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>342</v>
+        <v>502</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -913,22 +915,22 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -936,7 +938,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>342</v>
+        <v>502</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -945,13 +947,13 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -968,7 +970,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>342</v>
+        <v>502</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -977,22 +979,22 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1000,31 +1002,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>342</v>
+        <v>502</v>
       </c>
       <c r="C13">
-        <v>-13.67</v>
+        <v>-27.71</v>
       </c>
       <c r="D13">
         <v>14747.43</v>
       </c>
       <c r="E13">
-        <v>826.27</v>
+        <v>1536.05</v>
       </c>
       <c r="F13">
-        <v>188.64</v>
+        <v>340.33</v>
       </c>
       <c r="G13">
-        <v>2375.13</v>
+        <v>3303.78</v>
       </c>
       <c r="H13">
-        <v>503.6</v>
+        <v>1007.9</v>
       </c>
       <c r="I13">
-        <v>25.738166666666672</v>
+        <v>50.619333333333337</v>
       </c>
       <c r="J13">
-        <v>529.33333333333326</v>
+        <v>1058.523666666666</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1032,7 +1034,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>338</v>
+        <v>498</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1041,13 +1043,13 @@
         <v>98.7</v>
       </c>
       <c r="E14">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="F14">
         <v>0.2</v>
       </c>
       <c r="G14">
-        <v>9.2100000000000009</v>
+        <v>8.18</v>
       </c>
       <c r="H14">
         <v>0.6</v>
@@ -1064,31 +1066,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>338</v>
+        <v>498</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>56</v>
+        <v>75.8</v>
       </c>
       <c r="E15">
-        <v>4.04</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="F15">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="G15">
-        <v>7.73</v>
+        <v>9.35</v>
       </c>
       <c r="H15">
-        <v>3.28</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I15">
         <v>0.4</v>
       </c>
       <c r="J15">
-        <v>3.6749999999999998</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1096,31 +1098,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>338</v>
+        <v>498</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="E16">
-        <v>13.31</v>
+        <v>15.04</v>
       </c>
       <c r="F16">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>21.69</v>
+        <v>22.46</v>
       </c>
       <c r="H16">
-        <v>14.92</v>
+        <v>18.2</v>
       </c>
       <c r="I16">
-        <v>0.70000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>15.625</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1128,7 +1130,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>338</v>
+        <v>498</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1137,22 +1139,22 @@
         <v>100</v>
       </c>
       <c r="E17">
-        <v>24.97</v>
+        <v>30.02</v>
       </c>
       <c r="F17">
-        <v>14.05</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="G17">
-        <v>26.59</v>
+        <v>28.78</v>
       </c>
       <c r="H17">
-        <v>29.9</v>
+        <v>41.17</v>
       </c>
       <c r="I17">
-        <v>5.5</v>
+        <v>6.8250000000000011</v>
       </c>
       <c r="J17">
-        <v>35.400000000000013</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1160,7 +1162,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>338</v>
+        <v>498</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1169,7 +1171,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="E18">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0.7</v>
       </c>
       <c r="H18">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1192,7 +1194,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>338</v>
+        <v>498</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1207,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.17</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1224,7 +1226,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>338</v>
+        <v>498</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1233,22 +1235,22 @@
         <v>23.8</v>
       </c>
       <c r="E20">
-        <v>3.86</v>
+        <v>3.66</v>
       </c>
       <c r="F20">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="G20">
         <v>3.09</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>4.28</v>
       </c>
       <c r="I20">
-        <v>1.5</v>
+        <v>1.125</v>
       </c>
       <c r="J20">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1256,7 +1258,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>338</v>
+        <v>498</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1265,22 +1267,22 @@
         <v>100</v>
       </c>
       <c r="E21">
-        <v>51.92</v>
+        <v>44.78</v>
       </c>
       <c r="F21">
-        <v>56.95</v>
+        <v>44.75</v>
       </c>
       <c r="G21">
-        <v>32</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="H21">
-        <v>56.95</v>
+        <v>66.069999999999993</v>
       </c>
       <c r="I21">
-        <v>24.45</v>
+        <v>9.5</v>
       </c>
       <c r="J21">
-        <v>81.400000000000006</v>
+        <v>75.574999999999989</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1288,7 +1290,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>331</v>
+        <v>490</v>
       </c>
       <c r="C22">
         <v>0.4</v>
@@ -1297,22 +1299,22 @@
         <v>100</v>
       </c>
       <c r="E22">
-        <v>51.31</v>
+        <v>54.29</v>
       </c>
       <c r="F22">
-        <v>49.4</v>
+        <v>55.35</v>
       </c>
       <c r="G22">
-        <v>28.3</v>
+        <v>28.24</v>
       </c>
       <c r="H22">
-        <v>47</v>
+        <v>47.17</v>
       </c>
       <c r="I22">
-        <v>28.5</v>
+        <v>31.125</v>
       </c>
       <c r="J22">
-        <v>75.5</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1320,7 +1322,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>342</v>
+        <v>502</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1329,22 +1331,22 @@
         <v>99.94</v>
       </c>
       <c r="E23">
-        <v>51.31</v>
+        <v>54.71</v>
       </c>
       <c r="F23">
-        <v>52.9</v>
+        <v>58.44</v>
       </c>
       <c r="G23">
-        <v>27.83</v>
+        <v>26.83</v>
       </c>
       <c r="H23">
-        <v>48.49</v>
+        <v>45.83</v>
       </c>
       <c r="I23">
-        <v>26.89</v>
+        <v>30.984999999999999</v>
       </c>
       <c r="J23">
-        <v>75.38</v>
+        <v>76.819999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -1356,9 +1358,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1406,34 +1416,34 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>302</v>
+        <v>466</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>0.28299999999999997</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E2">
-        <v>1.1930000000000001</v>
+        <v>1.335</v>
       </c>
       <c r="F2">
-        <v>0.91</v>
+        <v>1.2929999999999999</v>
       </c>
       <c r="G2">
-        <v>1.1000000000000001</v>
+        <v>0.122</v>
       </c>
       <c r="H2">
-        <v>0.27600000000000002</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="I2">
-        <v>58.215000000000003</v>
+        <v>41.04</v>
       </c>
       <c r="J2">
-        <v>-0.23200000000000001</v>
+        <v>-0.65800000000000003</v>
       </c>
       <c r="K2">
-        <v>0.79900000000000004</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="L2" t="s">
         <v>44</v>
@@ -1447,34 +1457,34 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>253</v>
+        <v>442</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>0.22</v>
+        <v>-0.379</v>
       </c>
       <c r="E3">
-        <v>1.2170000000000001</v>
+        <v>1.286</v>
       </c>
       <c r="F3">
-        <v>0.997</v>
+        <v>1.6659999999999999</v>
       </c>
       <c r="G3">
-        <v>0.92200000000000004</v>
+        <v>-1.256</v>
       </c>
       <c r="H3">
-        <v>0.35799999999999998</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="I3">
-        <v>145.749</v>
+        <v>73.290999999999997</v>
       </c>
       <c r="J3">
-        <v>-0.251</v>
+        <v>-0.98099999999999998</v>
       </c>
       <c r="K3">
-        <v>0.69099999999999995</v>
+        <v>0.222</v>
       </c>
       <c r="L3" t="s">
         <v>44</v>
@@ -1488,34 +1498,34 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>252</v>
+        <v>438</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>0.38300000000000001</v>
+        <v>0.246</v>
       </c>
       <c r="E4">
-        <v>1.2609999999999999</v>
+        <v>1.363</v>
       </c>
       <c r="F4">
-        <v>0.878</v>
+        <v>1.117</v>
       </c>
       <c r="G4">
-        <v>1.76</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="H4">
-        <v>0.08</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="I4">
-        <v>173.87299999999999</v>
+        <v>84.91</v>
       </c>
       <c r="J4">
-        <v>-4.7E-2</v>
+        <v>-0.28199999999999997</v>
       </c>
       <c r="K4">
-        <v>0.81299999999999994</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="L4" t="s">
         <v>44</v>
@@ -1529,34 +1539,34 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>292</v>
+        <v>444</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D5">
-        <v>0.23599999999999999</v>
+        <v>-0.33200000000000002</v>
       </c>
       <c r="E5">
-        <v>1.194</v>
+        <v>1.2929999999999999</v>
       </c>
       <c r="F5">
-        <v>0.95799999999999996</v>
+        <v>1.6259999999999999</v>
       </c>
       <c r="G5">
-        <v>0.753</v>
+        <v>-1.06</v>
       </c>
       <c r="H5">
-        <v>0.45400000000000001</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="I5">
-        <v>62.767000000000003</v>
+        <v>69.495999999999995</v>
       </c>
       <c r="J5">
-        <v>-0.39</v>
+        <v>-0.95799999999999996</v>
       </c>
       <c r="K5">
-        <v>0.86299999999999999</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="L5" t="s">
         <v>44</v>
@@ -1570,34 +1580,34 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>203</v>
+        <v>354</v>
       </c>
       <c r="C6">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D6">
-        <v>0.24</v>
+        <v>-0.439</v>
       </c>
       <c r="E6">
-        <v>1.2569999999999999</v>
+        <v>1.202</v>
       </c>
       <c r="F6">
-        <v>1.018</v>
+        <v>1.6419999999999999</v>
       </c>
       <c r="G6">
-        <v>1.1679999999999999</v>
+        <v>-2.125</v>
       </c>
       <c r="H6">
-        <v>0.24399999999999999</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="I6">
-        <v>301.05399999999997</v>
+        <v>260.58499999999998</v>
       </c>
       <c r="J6">
-        <v>-0.16400000000000001</v>
+        <v>-0.84599999999999997</v>
       </c>
       <c r="K6">
-        <v>0.64400000000000002</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="L6" t="s">
         <v>44</v>
@@ -1611,34 +1621,34 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>238</v>
+        <v>399</v>
       </c>
       <c r="C7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7">
-        <v>0.184</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="E7">
-        <v>1.216</v>
+        <v>1.3120000000000001</v>
       </c>
       <c r="F7">
-        <v>1.032</v>
+        <v>1.409</v>
       </c>
       <c r="G7">
-        <v>0.873</v>
+        <v>-0.40899999999999997</v>
       </c>
       <c r="H7">
-        <v>0.38300000000000001</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="I7">
-        <v>217.56800000000001</v>
+        <v>151.364</v>
       </c>
       <c r="J7">
-        <v>-0.23200000000000001</v>
+        <v>-0.56599999999999995</v>
       </c>
       <c r="K7">
-        <v>0.60099999999999998</v>
+        <v>0.372</v>
       </c>
       <c r="L7" t="s">
         <v>44</v>
@@ -1652,34 +1662,34 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>233</v>
+        <v>401</v>
       </c>
       <c r="C8">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D8">
-        <v>0.23899999999999999</v>
+        <v>-0.67900000000000005</v>
       </c>
       <c r="E8">
-        <v>1.236</v>
+        <v>1.1950000000000001</v>
       </c>
       <c r="F8">
-        <v>0.997</v>
+        <v>1.8740000000000001</v>
       </c>
       <c r="G8">
-        <v>1.105</v>
+        <v>-2.8</v>
       </c>
       <c r="H8">
-        <v>0.27</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I8">
-        <v>214.637</v>
+        <v>143.87899999999999</v>
       </c>
       <c r="J8">
-        <v>-0.187</v>
+        <v>-1.1579999999999999</v>
       </c>
       <c r="K8">
-        <v>0.66500000000000004</v>
+        <v>-0.2</v>
       </c>
       <c r="L8" t="s">
         <v>44</v>
@@ -1693,34 +1703,34 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>255</v>
+        <v>417</v>
       </c>
       <c r="C9">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D9">
-        <v>-3.5000000000000003E-2</v>
+        <v>-0.59899999999999998</v>
       </c>
       <c r="E9">
-        <v>1.151</v>
+        <v>1.23</v>
       </c>
       <c r="F9">
-        <v>1.1859999999999999</v>
+        <v>1.829</v>
       </c>
       <c r="G9">
-        <v>-0.157</v>
+        <v>-2.2429999999999999</v>
       </c>
       <c r="H9">
-        <v>0.875</v>
+        <v>2.7E-2</v>
       </c>
       <c r="I9">
-        <v>159.22</v>
+        <v>111.721</v>
       </c>
       <c r="J9">
-        <v>-0.47899999999999998</v>
+        <v>-1.1279999999999999</v>
       </c>
       <c r="K9">
-        <v>0.40799999999999997</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="L9" t="s">
         <v>44</v>
@@ -1734,34 +1744,34 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>327</v>
+        <v>490</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>0.375</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="E10">
-        <v>1.1759999999999999</v>
+        <v>1.3420000000000001</v>
       </c>
       <c r="F10">
-        <v>0.80200000000000005</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="G10">
-        <v>0.86599999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="H10">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="I10">
-        <v>15.773999999999999</v>
+        <v>12.371</v>
       </c>
       <c r="J10">
-        <v>-0.54400000000000004</v>
+        <v>-0.437</v>
       </c>
       <c r="K10">
-        <v>1.294</v>
+        <v>1.2709999999999999</v>
       </c>
       <c r="L10" t="s">
         <v>44</v>
@@ -1775,34 +1785,34 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>230</v>
+        <v>406</v>
       </c>
       <c r="C11">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D11">
-        <v>0.47599999999999998</v>
+        <v>-0.52900000000000003</v>
       </c>
       <c r="E11">
-        <v>1.3160000000000001</v>
+        <v>1.2310000000000001</v>
       </c>
       <c r="F11">
-        <v>0.84</v>
+        <v>1.7589999999999999</v>
       </c>
       <c r="G11">
-        <v>2.3530000000000002</v>
+        <v>-2.13</v>
       </c>
       <c r="H11">
-        <v>1.9E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="I11">
-        <v>257.47800000000001</v>
+        <v>134.21299999999999</v>
       </c>
       <c r="J11">
-        <v>7.8E-2</v>
+        <v>-1.0189999999999999</v>
       </c>
       <c r="K11">
-        <v>0.875</v>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="L11" t="s">
         <v>44</v>
@@ -1852,16 +1862,16 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>106.0720467906709</v>
+        <v>131.33252528047899</v>
       </c>
       <c r="D2">
-        <v>35.357348930223637</v>
+        <v>43.777508426826351</v>
       </c>
       <c r="E2">
-        <v>10.94339830321397</v>
+        <v>10.87119368510389</v>
       </c>
       <c r="F2">
-        <v>7.0768982244261521E-7</v>
+        <v>6.2880558968109005E-7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1872,16 +1882,16 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>4.8179913636320384</v>
+        <v>30.39238323825537</v>
       </c>
       <c r="D3">
-        <v>1.6059971212106789</v>
+        <v>10.13079441275179</v>
       </c>
       <c r="E3">
-        <v>0.45489254797043688</v>
+        <v>2.395202872595096</v>
       </c>
       <c r="F3">
-        <v>0.71400834824658044</v>
+        <v>6.7524560755600954E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1892,16 +1902,16 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>327.48735388524398</v>
+        <v>520.23579188044755</v>
       </c>
       <c r="D4">
-        <v>17.236176520276</v>
+        <v>27.3808311516025</v>
       </c>
       <c r="E4">
-        <v>6.3746852648329622</v>
+        <v>8.1642478452634215</v>
       </c>
       <c r="F4">
-        <v>5.4845639141791491E-14</v>
+        <v>7.4737103684295723E-20</v>
       </c>
     </row>
   </sheetData>
@@ -1942,7 +1952,7 @@
         <v>54</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>-2.87</v>
@@ -1951,10 +1961,10 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="F2">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1962,19 +1972,19 @@
         <v>55</v>
       </c>
       <c r="B3">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="C3">
-        <v>-2.93</v>
+        <v>-3.93</v>
       </c>
       <c r="D3">
-        <v>7.67</v>
+        <v>7.91</v>
       </c>
       <c r="E3">
-        <v>1.47</v>
+        <v>1.78</v>
       </c>
       <c r="F3">
-        <v>2.02</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1982,19 +1992,19 @@
         <v>56</v>
       </c>
       <c r="B4">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="C4">
         <v>-6.25</v>
       </c>
       <c r="D4">
-        <v>7.5</v>
+        <v>8.59</v>
       </c>
       <c r="E4">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="F4">
-        <v>2.06</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2002,19 +2012,19 @@
         <v>57</v>
       </c>
       <c r="B5">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C5">
-        <v>-1.1599999999999999</v>
+        <v>-2.89</v>
       </c>
       <c r="D5">
-        <v>7.81</v>
+        <v>8.75</v>
       </c>
       <c r="E5">
-        <v>0.46</v>
+        <v>0.87</v>
       </c>
       <c r="F5">
-        <v>1.24</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2022,19 +2032,19 @@
         <v>58</v>
       </c>
       <c r="B6">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="C6">
-        <v>-2.6</v>
+        <v>-3.93</v>
       </c>
       <c r="D6">
-        <v>6.74</v>
+        <v>8.75</v>
       </c>
       <c r="E6">
-        <v>1.06</v>
+        <v>1.65</v>
       </c>
       <c r="F6">
-        <v>1.78</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2042,7 +2052,7 @@
         <v>59</v>
       </c>
       <c r="B7">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C7">
         <v>-6.25</v>
@@ -2051,10 +2061,10 @@
         <v>7.5</v>
       </c>
       <c r="E7">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2062,19 +2072,19 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="C8">
         <v>-2.93</v>
       </c>
       <c r="D8">
-        <v>7.81</v>
+        <v>8.59</v>
       </c>
       <c r="E8">
         <v>1.3</v>
       </c>
       <c r="F8">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2082,19 +2092,19 @@
         <v>61</v>
       </c>
       <c r="B9">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C9">
         <v>-2.87</v>
       </c>
       <c r="D9">
-        <v>5.17</v>
+        <v>7.3</v>
       </c>
       <c r="E9">
-        <v>0.97</v>
+        <v>1.05</v>
       </c>
       <c r="F9">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
     </row>
   </sheetData>
@@ -2144,22 +2154,22 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>4.0000000000000001E-3</v>
+        <v>0.186</v>
       </c>
       <c r="C2">
-        <v>7.9000000000000001E-2</v>
+        <v>4.2290000000000001</v>
       </c>
       <c r="D2">
-        <v>0.93700000000000006</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="F2">
-        <v>-0.10199999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="G2">
-        <v>0.11</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="H2" t="s">
         <v>63</v>
@@ -2173,22 +2183,22 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>-4.5999999999999999E-2</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="C3">
-        <v>-0.84099999999999997</v>
+        <v>-0.92500000000000004</v>
       </c>
       <c r="D3">
-        <v>0.40100000000000002</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="E3">
-        <v>336</v>
+        <v>496</v>
       </c>
       <c r="F3">
-        <v>-0.152</v>
+        <v>-0.129</v>
       </c>
       <c r="G3">
-        <v>6.0999999999999999E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="H3" t="s">
         <v>63</v>
@@ -2202,22 +2212,22 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>1.7000000000000001E-2</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="C4">
-        <v>0.313</v>
+        <v>3.0030000000000001</v>
       </c>
       <c r="D4">
-        <v>0.754</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E4">
-        <v>336</v>
+        <v>496</v>
       </c>
       <c r="F4">
-        <v>-0.09</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="G4">
-        <v>0.124</v>
+        <v>0.219</v>
       </c>
       <c r="H4" t="s">
         <v>63</v>
@@ -2231,22 +2241,22 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>3.7999999999999999E-2</v>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="C5">
-        <v>0.69299999999999995</v>
+        <v>-0.83899999999999997</v>
       </c>
       <c r="D5">
-        <v>0.48899999999999999</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="E5">
-        <v>336</v>
+        <v>496</v>
       </c>
       <c r="F5">
-        <v>-6.9000000000000006E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="G5">
-        <v>0.14399999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="H5" t="s">
         <v>63</v>
@@ -2260,22 +2270,22 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>6.6000000000000003E-2</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="C6">
-        <v>1.2050000000000001</v>
+        <v>3.2770000000000001</v>
       </c>
       <c r="D6">
-        <v>0.22900000000000001</v>
+        <v>1E-3</v>
       </c>
       <c r="E6">
-        <v>336</v>
+        <v>496</v>
       </c>
       <c r="F6">
-        <v>-4.1000000000000002E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="G6">
-        <v>0.17100000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="H6" t="s">
         <v>63</v>
@@ -2289,22 +2299,22 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>-4.1000000000000002E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C7">
-        <v>-0.751</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="D7">
-        <v>0.45300000000000001</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="E7">
-        <v>336</v>
+        <v>496</v>
       </c>
       <c r="F7">
-        <v>-0.14699999999999999</v>
+        <v>-7.5999999999999998E-2</v>
       </c>
       <c r="G7">
-        <v>6.6000000000000003E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H7" t="s">
         <v>63</v>
@@ -2318,22 +2328,22 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>-4.7E-2</v>
+        <v>-4.5999999999999999E-2</v>
       </c>
       <c r="C8">
-        <v>-0.86799999999999999</v>
+        <v>-1.0169999999999999</v>
       </c>
       <c r="D8">
-        <v>0.38600000000000001</v>
+        <v>0.309</v>
       </c>
       <c r="E8">
-        <v>336</v>
+        <v>496</v>
       </c>
       <c r="F8">
-        <v>-0.153</v>
+        <v>-0.13300000000000001</v>
       </c>
       <c r="G8">
-        <v>0.06</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="H8" t="s">
         <v>63</v>
@@ -2347,22 +2357,22 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>-4.0000000000000001E-3</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="C9">
-        <v>-0.08</v>
+        <v>-0.995</v>
       </c>
       <c r="D9">
-        <v>0.93600000000000005</v>
+        <v>0.32</v>
       </c>
       <c r="E9">
-        <v>336</v>
+        <v>496</v>
       </c>
       <c r="F9">
-        <v>-0.111</v>
+        <v>-0.13200000000000001</v>
       </c>
       <c r="G9">
-        <v>0.10199999999999999</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="H9" t="s">
         <v>63</v>
@@ -2376,22 +2386,22 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.126</v>
       </c>
       <c r="C10">
-        <v>-1.2789999999999999</v>
+        <v>-2.8210000000000002</v>
       </c>
       <c r="D10">
-        <v>0.20200000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E10">
-        <v>336</v>
+        <v>496</v>
       </c>
       <c r="F10">
-        <v>-0.17499999999999999</v>
+        <v>-0.21099999999999999</v>
       </c>
       <c r="G10">
-        <v>3.6999999999999998E-2</v>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="H10" t="s">
         <v>63</v>
@@ -2405,22 +2415,22 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>2.7E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C11">
-        <v>0.48199999999999998</v>
+        <v>1.4630000000000001</v>
       </c>
       <c r="D11">
-        <v>0.63</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E11">
-        <v>329</v>
+        <v>488</v>
       </c>
       <c r="F11">
-        <v>-8.1000000000000003E-2</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="G11">
-        <v>0.13400000000000001</v>
+        <v>0.154</v>
       </c>
       <c r="H11" t="s">
         <v>63</v>
@@ -2434,22 +2444,22 @@
         <v>31</v>
       </c>
       <c r="B12">
-        <v>6.8000000000000005E-2</v>
+        <v>0.113</v>
       </c>
       <c r="C12">
-        <v>1.256</v>
+        <v>2.5419999999999998</v>
       </c>
       <c r="D12">
-        <v>0.21</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E12">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="F12">
-        <v>-3.7999999999999999E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="G12">
-        <v>0.17299999999999999</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="H12" t="s">
         <v>63</v>
